--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -993,7 +993,7 @@
   <cols>
     <col min="1" max="1" width="10.3046875" style="1"/>
     <col min="2" max="2" width="15.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.07421875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.3046875" style="1"/>
     <col min="5" max="5" width="15.23046875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.84375" style="1" customWidth="1"/>

--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14760"/>
   </bookViews>
   <sheets>
-    <sheet name="2400 (test)" sheetId="2" r:id="rId1"/>
-    <sheet name="2400 epochs" sheetId="1" r:id="rId2"/>
+    <sheet name="Main Page" sheetId="3" r:id="rId1"/>
+    <sheet name="Dont_use_this_data" sheetId="2" r:id="rId2"/>
+    <sheet name="2400 epochs" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
   <si>
     <t>Guess</t>
   </si>
@@ -186,14 +187,176 @@
     <t>D#M6</t>
   </si>
   <si>
-    <t>Numbers: Random.org</t>
+    <t>R2-B09</t>
+  </si>
+  <si>
+    <t>LATENCIES</t>
+  </si>
+  <si>
+    <t>System specs:</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>i7-5820K</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Nvidia GTX 1070 (EVGA FTW2)</t>
+  </si>
+  <si>
+    <t>Disks</t>
+  </si>
+  <si>
+    <t>Sandisk SSD PLUS 120GB (MLC)</t>
+  </si>
+  <si>
+    <t>Samsung 850 EVO 256GB (MLC)</t>
+  </si>
+  <si>
+    <t>WD Black 1TB 7200RPM</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>CMaug679M7sus4(9)</t>
+  </si>
+  <si>
+    <t>CMaug69M7sus2sus4(9)</t>
+  </si>
+  <si>
+    <t>Elapsed (NN only)</t>
+  </si>
+  <si>
+    <t>Elapsed (NN, ms)</t>
+  </si>
+  <si>
+    <t>CMaug69M7(9)</t>
+  </si>
+  <si>
+    <t>Caug79M7sus4(9)</t>
+  </si>
+  <si>
+    <t>CMaug679sus2sus4(9)</t>
+  </si>
+  <si>
+    <t>#NOTES</t>
+  </si>
+  <si>
+    <t>C#dim9</t>
+  </si>
+  <si>
+    <t>CMaug67M7(9)</t>
+  </si>
+  <si>
+    <t>CMaug679(9)</t>
+  </si>
+  <si>
+    <t>Caug69M7sus4(9)</t>
+  </si>
+  <si>
+    <t>Search time (ms)</t>
+  </si>
+  <si>
+    <t>Live perf thr (ms)</t>
+  </si>
+  <si>
+    <t>CMaug67M7sus2(9)</t>
+  </si>
+  <si>
+    <t>CM767M7sus4(9)</t>
+  </si>
+  <si>
+    <t>Caug67M7sus4(9)</t>
+  </si>
+  <si>
+    <t>Caug79M7sus2sus4(9)</t>
+  </si>
+  <si>
+    <t>Cmajaug69maj7sus4(9)</t>
+  </si>
+  <si>
+    <t>Caug679sus4(9)</t>
+  </si>
+  <si>
+    <t>CMaug79M7sus2sus4(9)</t>
+  </si>
+  <si>
+    <t>CMaug67M7sus4(9)</t>
+  </si>
+  <si>
+    <t>CMaug679sus4(9)</t>
+  </si>
+  <si>
+    <t>CMaug67sus4(9)</t>
+  </si>
+  <si>
+    <t>Caugdim69M7sus4(9)</t>
+  </si>
+  <si>
+    <t>Chords picked randomly</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>Summary measures</t>
+  </si>
+  <si>
+    <t>STDEV (Sample)</t>
+  </si>
+  <si>
+    <t>Samp Size</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>16GB Corsair Vengeance LPX 2400</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>1QT</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>3QT</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>1QT-MIN</t>
+  </si>
+  <si>
+    <t>MED-1QT</t>
+  </si>
+  <si>
+    <t>3QT-MED</t>
+  </si>
+  <si>
+    <t>MAX-3QT</t>
+  </si>
+  <si>
+    <t>Neural net</t>
+  </si>
+  <si>
+    <t>Neural net + Translator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,16 +390,41 @@
       <name val="HK Grotesk"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="HK Grotesk"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="HK Grotesk"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -244,22 +432,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -269,6 +494,1124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="HK Grotesk" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Neural network response times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="HK Grotesk" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('2400 epochs'!$E$46,'2400 epochs'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$47:$G$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('2400 epochs'!$E$47,'2400 epochs'!$G$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.44000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1925000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FDD-4D44-AB73-36E1ADD47A12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('2400 epochs'!$E$46,'2400 epochs'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$48:$G$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('2400 epochs'!$E$48,'2400 epochs'!$G$48)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999858E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2174999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FDD-4D44-AB73-36E1ADD47A12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('2400 epochs'!$E$46,'2400 epochs'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$49:$G$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('2400 epochs'!$E$49,'2400 epochs'!$G$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.20500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39500000000000046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2FDD-4D44-AB73-36E1ADD47A12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('2400 epochs'!$E$46,'2400 epochs'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$50:$G$50</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('2400 epochs'!$E$50,'2400 epochs'!$G$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84499999999999886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2FDD-4D44-AB73-36E1ADD47A12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="617788816"/>
+        <c:axId val="617789144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="617788816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="HK Grotesk" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617789144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617789144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="HK Grotesk" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617788816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="HK Grotesk" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>849086</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>106134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558F2D9A-7B94-40AD-86CD-14AB2BFF06F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,10 +1911,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.23046875" style="1"/>
+    <col min="2" max="2" width="31.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3828125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.299999999999997" x14ac:dyDescent="0.95">
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -981,26 +2410,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.3046875" style="1"/>
     <col min="2" max="2" width="15.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3046875" style="1"/>
-    <col min="5" max="5" width="15.23046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.84375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.3046875" style="1"/>
+    <col min="3" max="3" width="25.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" style="1"/>
+    <col min="7" max="7" width="15.23046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.84375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.53515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.3046875" style="1"/>
+    <col min="12" max="12" width="23.765625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1011,268 +2445,1185 @@
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>334</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="9">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2*1000</f>
+        <v>0.88</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="G2" s="8">
+        <f>F2*1000</f>
+        <v>1.51</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <f>1000*(F2-D2)</f>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>388</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <f>D3*1000</f>
+        <v>1.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="G3" s="8">
+        <f>F3*1000</f>
+        <v>2.12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <f>1000*(F3-D3)</f>
+        <v>0.82</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <f>D4*1000</f>
+        <v>1.3699999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="G4" s="8">
+        <f>F4*1000</f>
+        <v>2.19</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <f>1000*(F4-D4)</f>
+        <v>0.82000000000000017</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3">
+      <c r="M4" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.16E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <f>D5*1000</f>
+        <v>2.16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+      <c r="G5" s="8">
+        <f>F5*1000</f>
+        <v>3.0500000000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <f>1000*(F5-D5)</f>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>82</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>423</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>368</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>217</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.47E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <f>D6*1000</f>
+        <v>1.47</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="G6" s="8">
+        <f>F6*1000</f>
+        <v>2.37</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <f>1000*(F6-D6)</f>
+        <v>0.90000000000000024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.48E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <f>D7*1000</f>
+        <v>1.48</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="G7" s="8">
+        <f>F7*1000</f>
+        <v>2.4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <f>1000*(F7-D7)</f>
+        <v>0.91999999999999982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.0100000000000001E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <f>D8*1000</f>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.96E-3</v>
+      </c>
+      <c r="G8" s="8">
+        <f>F8*1000</f>
+        <v>2.96</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <f>1000*(F8-D8)</f>
+        <v>0.94999999999999984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <f>D9*1000</f>
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="G9" s="8">
+        <f>F9*1000</f>
+        <v>2.25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <f>1000*(F9-D9)</f>
+        <v>0.94999999999999984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>420</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.99E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <f>D10*1000</f>
+        <v>1.99</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.98E-3</v>
+      </c>
+      <c r="G10" s="8">
+        <f>F10*1000</f>
+        <v>2.98</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <f>1000*(F10-D10)</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <f>D11*1000</f>
+        <v>2.19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="G11" s="8">
+        <f>F11*1000</f>
+        <v>3.18</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <f>1000*(F11-D11)</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>427</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <f>D12*1000</f>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.63E-3</v>
+      </c>
+      <c r="G12" s="8">
+        <f>F12*1000</f>
+        <v>2.63</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <f>1000*(F12-D12)</f>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>424</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="E13" s="7">
+        <f>D13*1000</f>
+        <v>1.52</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G13" s="8">
+        <f>F13*1000</f>
+        <v>2.7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <f>1000*(F13-D13)</f>
+        <v>1.1800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
+        <v>247</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.42E-3</v>
+      </c>
+      <c r="E14" s="7">
+        <f>D14*1000</f>
+        <v>1.42</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="G14" s="8">
+        <f>F14*1000</f>
+        <v>2.71</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <f>1000*(F14-D14)</f>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>438</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E15" s="7">
+        <f>D15*1000</f>
+        <v>1.32</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="G15" s="8">
+        <f>F15*1000</f>
+        <v>2.7399999999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <f>1000*(F15-D15)</f>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>217</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E16" s="7">
+        <f>D16*1000</f>
+        <v>1.32</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="G16" s="8">
+        <f>F16*1000</f>
+        <v>2.77</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <f>1000*(F16-D16)</f>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>368</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.57E-3</v>
+      </c>
+      <c r="E17" s="7">
+        <f>D17*1000</f>
+        <v>1.57</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.0599999999999998E-3</v>
+      </c>
+      <c r="G17" s="8">
+        <f>F17*1000</f>
+        <v>3.0599999999999996</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <f>1000*(F17-D17)</f>
+        <v>1.4899999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>145</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="E18" s="7">
+        <f>D18*1000</f>
+        <v>1.2899999999999998</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G18" s="8">
+        <f>F18*1000</f>
+        <v>2.8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f>1000*(F18-D18)</f>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>405</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.31E-3</v>
+      </c>
+      <c r="E19" s="7">
+        <f>D19*1000</f>
+        <v>1.31</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <f>F19*1000</f>
+        <v>2.83</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <f>1000*(F19-D19)</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.2700000000000001E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <f>D20*1000</f>
+        <v>1.27</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="G20" s="8">
+        <f>F20*1000</f>
+        <v>2.8600000000000003</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <f>1000*(F20-D20)</f>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="E21" s="7">
+        <f>D21*1000</f>
+        <v>1.28</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="G21" s="8">
+        <f>F21*1000</f>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <f>1000*(F21-D21)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
         <v>182</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>305</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>334</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E22" s="7">
+        <f>D22*1000</f>
+        <v>1.6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="G22" s="8">
+        <f>F22*1000</f>
+        <v>3.3400000000000003</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <f>1000*(F22-D22)</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>204</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1.33E-3</v>
+      </c>
+      <c r="E23" s="7">
+        <f>D23*1000</f>
+        <v>1.33</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.13E-3</v>
+      </c>
+      <c r="G23" s="8">
+        <f>F23*1000</f>
+        <v>3.13</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <f>1000*(F23-D23)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>227</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="E24" s="7">
+        <f>D24*1000</f>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="G24" s="8">
+        <f>F24*1000</f>
+        <v>3.91</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <f>1000*(F24-D24)</f>
+        <v>1.8800000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>272</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E25" s="7">
+        <f>D25*1000</f>
+        <v>1.32</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="G25" s="8">
+        <f>F25*1000</f>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1">
+        <f>1000*(F25-D25)</f>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>357</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E26" s="7">
+        <f>D26*1000</f>
+        <v>1.32</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="G26" s="8">
+        <f>F26*1000</f>
+        <v>3.3400000000000003</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <f>1000*(F26-D26)</f>
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>420</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="E27" s="7">
+        <f>D27*1000</f>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="G27" s="8">
+        <f>F27*1000</f>
+        <v>3.72</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <f>1000*(F27-D27)</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>409</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="E28" s="7">
+        <f>D28*1000</f>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4.1599999999999996E-3</v>
+      </c>
+      <c r="G28" s="8">
+        <f>F28*1000</f>
+        <v>4.1599999999999993</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <f>1000*(F28-D28)</f>
+        <v>2.1099999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>423</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="E29" s="7">
+        <f>D29*1000</f>
+        <v>1.59</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="G29" s="8">
+        <f>F29*1000</f>
+        <v>3.72</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <f>1000*(F29-D29)</f>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>427</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="E30" s="7">
+        <f>D30*1000</f>
+        <v>1.35</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3.48E-3</v>
+      </c>
+      <c r="G30" s="8">
+        <f>F30*1000</f>
+        <v>3.48</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <f>1000*(F30-D30)</f>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
         <v>211</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
-        <v>438</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
-        <v>150</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E31" s="7">
+        <f>D31*1000</f>
+        <v>1.4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.6099999999999999E-3</v>
+      </c>
+      <c r="G31" s="8">
+        <f>F31*1000</f>
+        <v>3.61</v>
+      </c>
+      <c r="H31" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
-        <v>388</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
-        <v>357</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
-        <v>305</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="2">
-        <v>405</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <v>68</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
-        <v>204</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
-        <v>272</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="2">
-        <v>409</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="2">
-        <v>227</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="2">
-        <v>145</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>53</v>
+      <c r="I31" s="1">
+        <f>1000*(F31-D31)</f>
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="11">
+        <f>AVERAGE(E2:E31)</f>
+        <v>1.5226666666666666</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12">
+        <f>AVERAGE(G2:G31)</f>
+        <v>2.9546666666666668</v>
+      </c>
+      <c r="I36" s="2">
+        <f>AVERAGE(I2:I31)</f>
+        <v>1.4320000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="11">
+        <f>_xlfn.STDEV.S(E2:E31)</f>
+        <v>0.31587790453704268</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12">
+        <f>_xlfn.STDEV.S(G2:G31)</f>
+        <v>0.57541429352719786</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="11">
+        <v>30</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1">
+        <f>MIN(E2:E31)</f>
+        <v>0.88</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ref="F40:G40" si="0">MIN(G2:G31)</f>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 1)</f>
+        <v>1.32</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ref="F41:G41" si="1">_xlfn.QUARTILE.INC(G2:G31, 1)</f>
+        <v>2.7025000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 2)</f>
+        <v>1.41</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ref="F42:G42" si="2">_xlfn.QUARTILE.INC(G2:G31, 2)</f>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 3)</f>
+        <v>1.615</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ref="F43:G43" si="3">_xlfn.QUARTILE.INC(G2:G31, 3)</f>
+        <v>3.3150000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="1">
+        <f>MAX(E2:E31)</f>
+        <v>2.19</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ref="F44:G44" si="4">MAX(G2:G31)</f>
+        <v>4.1599999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="1">
+        <f>E41-E40</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="G47" s="1">
+        <f>G41-G40</f>
+        <v>1.1925000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="1">
+        <f>E42-E41</f>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <f>G42-G41</f>
+        <v>0.2174999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="1">
+        <f>E43-E42</f>
+        <v>0.20500000000000007</v>
+      </c>
+      <c r="G49" s="1">
+        <f>G43-G42</f>
+        <v>0.39500000000000046</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="1">
+        <f>E44-E43</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G50" s="1">
+        <f>G44-G43</f>
+        <v>0.84499999999999886</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I31">
+    <sortCondition ref="I2:I31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Dont_use_this_data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="2400 epochs" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="NNtime" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Totaltime" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
   <si>
     <t xml:space="preserve">R2-B09</t>
   </si>
@@ -403,6 +405,12 @@
   </si>
   <si>
     <t xml:space="preserve">MAX-3QT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time</t>
   </si>
 </sst>
 </file>
@@ -705,7 +713,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -970,11 +978,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="57105508"/>
-        <c:axId val="29483905"/>
+        <c:axId val="25396968"/>
+        <c:axId val="65775026"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57105508"/>
+        <c:axId val="25396968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,14 +1018,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29483905"/>
+        <c:crossAx val="65775026"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29483905"/>
+        <c:axId val="65775026"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1068,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57105508"/>
+        <c:crossAx val="25396968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1099,9 +1107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1109,8 +1117,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2938320" y="9324720"/>
-        <a:ext cx="6195600" cy="3715920"/>
+        <a:off x="2961360" y="9324720"/>
+        <a:ext cx="6309360" cy="3715560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1128,7 +1136,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
@@ -1136,12 +1144,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.39795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.39795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.50510204081633"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="D1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
@@ -1152,6 +1165,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1173,12 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+    </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1189,11 +1208,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,13 +1251,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4438775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,24 +1673,24 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.4744897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.1734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.1938775510204"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.3520408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.4948979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.984693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,6 +1721,8 @@
       <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -1732,6 +1755,8 @@
         <f aca="false">1000*(F2-D2)</f>
         <v>0.63</v>
       </c>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -1764,6 +1789,7 @@
         <f aca="false">1000*(F3-D3)</f>
         <v>0.82</v>
       </c>
+      <c r="K3" s="0"/>
       <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
@@ -1799,6 +1825,7 @@
         <f aca="false">1000*(F4-D4)</f>
         <v>0.82</v>
       </c>
+      <c r="K4" s="0"/>
       <c r="L4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1834,6 +1861,7 @@
         <f aca="false">1000*(F5-D5)</f>
         <v>0.89</v>
       </c>
+      <c r="K5" s="0"/>
       <c r="L5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1869,6 +1897,8 @@
         <f aca="false">1000*(F6-D6)</f>
         <v>0.9</v>
       </c>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -2508,6 +2538,8 @@
         <f aca="false">1000*(F23-D23)</f>
         <v>1.8</v>
       </c>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -2540,6 +2572,8 @@
         <f aca="false">1000*(F24-D24)</f>
         <v>1.88</v>
       </c>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -2808,6 +2842,12 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="I32" s="0"/>
       <c r="K32" s="10" t="s">
         <v>76</v>
       </c>
@@ -2817,6 +2857,12 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="I33" s="0"/>
       <c r="K33" s="10" t="s">
         <v>78</v>
       </c>
@@ -2826,6 +2872,11 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2"/>
+      <c r="C34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="I34" s="0"/>
       <c r="K34" s="10" t="s">
         <v>81</v>
       </c>
@@ -2840,6 +2891,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
+      <c r="I35" s="0"/>
       <c r="K35" s="10" t="s">
         <v>84</v>
       </c>
@@ -2870,7 +2922,7 @@
       </c>
       <c r="L36" s="10" t="n">
         <f aca="false">_xlfn.T.DIST(L35,L34,1)</f>
-        <v>4.70988820804785E-017</v>
+        <v>4.70988820804791E-017</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,6 +2961,9 @@
       <c r="L38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="G39" s="0"/>
       <c r="K39" s="1" t="s">
         <v>93</v>
       </c>
@@ -2947,6 +3002,7 @@
         <f aca="false">_xlfn.QUARTILE.INC(G2:G31, 1)</f>
         <v>2.7025</v>
       </c>
+      <c r="L41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
@@ -2990,7 +3046,13 @@
         <v>4.16</v>
       </c>
     </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="G45" s="0"/>
+    </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0"/>
       <c r="E46" s="2" t="s">
         <v>121</v>
       </c>
@@ -3017,7 +3079,7 @@
       </c>
       <c r="E48" s="1" t="n">
         <f aca="false">E42-E41</f>
-        <v>0.0899999999999999</v>
+        <v>0.0899999999999996</v>
       </c>
       <c r="G48" s="1" t="n">
         <f aca="false">G42-G41</f>
@@ -3047,7 +3109,7 @@
       </c>
       <c r="G50" s="1" t="n">
         <f aca="false">G44-G43</f>
-        <v>0.844999999999999</v>
+        <v>0.845</v>
       </c>
     </row>
   </sheetData>
@@ -3060,4 +3122,370 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="1" state="visible" r:id="rId2"/>
@@ -860,7 +860,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0899999999999999</c:v>
+                  <c:v>0.0899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2175</c:v>
@@ -970,7 +970,7 @@
                   <c:v>0.575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.844999999999999</c:v>
+                  <c:v>0.845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,11 +978,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="25396968"/>
-        <c:axId val="65775026"/>
+        <c:axId val="44806562"/>
+        <c:axId val="67673302"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25396968"/>
+        <c:axId val="44806562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,14 +1018,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65775026"/>
+        <c:crossAx val="67673302"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65775026"/>
+        <c:axId val="67673302"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1068,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25396968"/>
+        <c:crossAx val="44806562"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1107,9 +1107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
+      <xdr:colOff>65520</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1117,8 +1117,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2961360" y="9324720"/>
-        <a:ext cx="6309360" cy="3715560"/>
+        <a:off x="2984040" y="9324720"/>
+        <a:ext cx="6423480" cy="3715200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1144,10 +1144,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,13 +1251,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.6938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,24 +1673,24 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.3520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.4948979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="17.1734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.984693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.7091836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.8418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.6938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,9 +2929,9 @@
       <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="14" t="e">
-        <f aca="false">k11s</f>
-        <v>#NAME?</v>
+      <c r="E37" s="14" t="n">
+        <f aca="false">_xlfn.STDEV.S(E2:E31)</f>
+        <v>0.315877904537042</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="15" t="n">
@@ -3137,8 +3137,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,14 +3314,14 @@
   </sheetPr>
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t xml:space="preserve">R2-B09</t>
   </si>
@@ -713,7 +713,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -978,11 +978,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="44806562"/>
-        <c:axId val="67673302"/>
+        <c:axId val="10204729"/>
+        <c:axId val="95714024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44806562"/>
+        <c:axId val="10204729"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,14 +1018,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67673302"/>
+        <c:crossAx val="95714024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67673302"/>
+        <c:axId val="95714024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1068,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44806562"/>
+        <c:crossAx val="10204729"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1107,9 +1107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1117,8 +1117,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2984040" y="9324720"/>
-        <a:ext cx="6423480" cy="3715200"/>
+        <a:off x="3007080" y="9324720"/>
+        <a:ext cx="6537240" cy="3714840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1139,15 +1139,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="K25:L40 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.6938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,18 +1246,18 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K25:L40 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,24 +1673,24 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="17.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.7091836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.2142857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="17.4948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.9285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.1683673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,13 +3132,13 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="K25:L40 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,170 +3312,264 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="K25:L40 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>1.51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>2.12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="n">
         <v>2.19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>3.05</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>2.96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>2.25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>2.98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="7" t="n">
         <v>3.18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>2.63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="7" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <v>2.71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="7" t="n">
         <v>2.74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="7" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="7" t="n">
         <v>3.06</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="7" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="7" t="n">
         <v>2.83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="7" t="n">
         <v>2.86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="7" t="n">
         <v>2.88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7" t="n">
         <v>3.34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="7" t="n">
         <v>3.13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="7" t="n">
         <v>3.91</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="7" t="n">
         <v>3.24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="7" t="n">
         <v>3.34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="7" t="n">
         <v>3.72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+      <c r="A28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="7" t="n">
         <v>4.16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="7" t="n">
         <v>3.72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="7" t="n">
         <v>3.48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="7" t="n">
         <v>3.61</v>
       </c>
     </row>

--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joachim\Documents\PSHS 2019\5\R2_B09_Chord_Identification\documentation\figures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF3C86-CD64-4024-BC9F-A14E76CDFD3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main Page" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Dont_use_this_data" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="2400 epochs" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="NNtime" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Totaltime" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Main Page" sheetId="1" r:id="rId1"/>
+    <sheet name="Dont_use_this_data" sheetId="2" r:id="rId2"/>
+    <sheet name="2400 epochs" sheetId="3" r:id="rId3"/>
+    <sheet name="NNtime" sheetId="4" r:id="rId4"/>
+    <sheet name="Totaltime" sheetId="5" r:id="rId5"/>
+    <sheet name="6_NN2_4000-epochs" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,422 +37,404 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
-    <t xml:space="preserve">R2-B09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATENCIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System specs:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i7-5820K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nvidia GTX 1070 (EVGA FTW2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandisk SSD PLUS 120GB (MLC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung 850 EVO 256GB (MLC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WD Black 1TB 7200RPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16GB Corsair Vengeance LPX 2400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chord played</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chord guessed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elapsed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elapsed (ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just init?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epochs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM9(no3no5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM9(no5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am(M7no5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug79sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asus4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dm11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#m11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM11sus2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elapsed (NN only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elapsed (NN, ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#NOTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search time (ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caug679sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#m9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug67M7sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chords picked randomly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug679M7sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live perf thr (ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dm7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug69M7sus2sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caug69M7sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t-Test: One-sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left-tailed test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#sus4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug679(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H0: m &gt;= 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA: m&lt;10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G#7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cmajaug69maj7sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csus4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cdim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug679sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St.dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9sus4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug67M7sus2(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BM9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caug67M7sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypothesized Mean Difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#9sus4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug67M7(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B11sus2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FmM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug679sus2sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caug79M7sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t Stat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D#M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caug79M7sus2sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P(T&lt;=t) one-tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A#m6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug79M7sus2sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t Critical one-tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#dim9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#11sus2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tstat &lt; tcritical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reject null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P &lt; alfa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug67sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#sus2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM7sus2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caugdim69M7sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A9sus2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BM7sus2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elapsed (m, ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B7sus4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMaug69M7(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baug9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM767M7sus4(9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary measures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STDEV (Sample)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samp Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1QT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The NN is performing well enough for live performance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3QT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural net + Translator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1QT-MIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MED-1QT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3QT-MED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX-3QT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NN time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total time</t>
+    <t>R2-B09</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>LATENCIES</t>
+  </si>
+  <si>
+    <t>System specs:</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>i7-5820K</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Nvidia GTX 1070 (EVGA FTW2)</t>
+  </si>
+  <si>
+    <t>Disks</t>
+  </si>
+  <si>
+    <t>Sandisk SSD PLUS 120GB (MLC)</t>
+  </si>
+  <si>
+    <t>Samsung 850 EVO 256GB (MLC)</t>
+  </si>
+  <si>
+    <t>WD Black 1TB 7200RPM</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>16GB Corsair Vengeance LPX 2400</t>
+  </si>
+  <si>
+    <t>Guess</t>
+  </si>
+  <si>
+    <t>Chord played</t>
+  </si>
+  <si>
+    <t>Chord guessed</t>
+  </si>
+  <si>
+    <t>Elapsed</t>
+  </si>
+  <si>
+    <t>Elapsed (ms)</t>
+  </si>
+  <si>
+    <t>Just init?</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>C3(4)</t>
+  </si>
+  <si>
+    <t>FM7</t>
+  </si>
+  <si>
+    <t>DM9(no3no5)</t>
+  </si>
+  <si>
+    <t>DM9(no5)</t>
+  </si>
+  <si>
+    <t>DM9</t>
+  </si>
+  <si>
+    <t>Am(M7no5)</t>
+  </si>
+  <si>
+    <t>CMaug79sus4(9)</t>
+  </si>
+  <si>
+    <t>AmM7</t>
+  </si>
+  <si>
+    <t>Asus4</t>
+  </si>
+  <si>
+    <t>Dm11</t>
+  </si>
+  <si>
+    <t>C#m11</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>GM11sus2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AM6</t>
+  </si>
+  <si>
+    <t>Elapsed (NN only)</t>
+  </si>
+  <si>
+    <t>Elapsed (NN, ms)</t>
+  </si>
+  <si>
+    <t>#NOTES</t>
+  </si>
+  <si>
+    <t>Search time (ms)</t>
+  </si>
+  <si>
+    <t>Caug679sus4(9)</t>
+  </si>
+  <si>
+    <t>A#m9</t>
+  </si>
+  <si>
+    <t>CMaug67M7sus4(9)</t>
+  </si>
+  <si>
+    <t>Chords picked randomly</t>
+  </si>
+  <si>
+    <t>Daug</t>
+  </si>
+  <si>
+    <t>CMaug679M7sus4(9)</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>Live perf thr (ms)</t>
+  </si>
+  <si>
+    <t>Dm7</t>
+  </si>
+  <si>
+    <t>CMaug69M7sus2sus4(9)</t>
+  </si>
+  <si>
+    <t>C#M7</t>
+  </si>
+  <si>
+    <t>Caug69M7sus4(9)</t>
+  </si>
+  <si>
+    <t>t-Test: One-sample</t>
+  </si>
+  <si>
+    <t>left-tailed test</t>
+  </si>
+  <si>
+    <t>G#sus4</t>
+  </si>
+  <si>
+    <t>CMaug679(9)</t>
+  </si>
+  <si>
+    <t>H0: m &gt;= 10</t>
+  </si>
+  <si>
+    <t>HA: m&lt;10</t>
+  </si>
+  <si>
+    <t>G#7</t>
+  </si>
+  <si>
+    <t>Cmajaug69maj7sus4(9)</t>
+  </si>
+  <si>
+    <t>Csus4</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Cdim</t>
+  </si>
+  <si>
+    <t>CMaug679sus4(9)</t>
+  </si>
+  <si>
+    <t>St.dev</t>
+  </si>
+  <si>
+    <t>C9sus4</t>
+  </si>
+  <si>
+    <t>CMaug67M7sus2(9)</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>BM9</t>
+  </si>
+  <si>
+    <t>Caug67M7sus4(9)</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>F#9sus4</t>
+  </si>
+  <si>
+    <t>CMaug67M7(9)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>B11sus2</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>FmM7</t>
+  </si>
+  <si>
+    <t>CMaug679sus2sus4(9)</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>Am6</t>
+  </si>
+  <si>
+    <t>Caug79M7sus4(9)</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>D#M6</t>
+  </si>
+  <si>
+    <t>Caug79M7sus2sus4(9)</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>A#m6</t>
+  </si>
+  <si>
+    <t>CMaug79M7sus2sus4(9)</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>C#dim9</t>
+  </si>
+  <si>
+    <t>C#11sus2</t>
+  </si>
+  <si>
+    <t>tstat &lt; tcritical</t>
+  </si>
+  <si>
+    <t>reject null</t>
+  </si>
+  <si>
+    <t>EM6</t>
+  </si>
+  <si>
+    <t>P &lt; alfa</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>CMaug67sus4(9)</t>
+  </si>
+  <si>
+    <t>F#sus2</t>
+  </si>
+  <si>
+    <t>GM7sus2</t>
+  </si>
+  <si>
+    <t>Caugdim69M7sus4(9)</t>
+  </si>
+  <si>
+    <t>A9sus2</t>
+  </si>
+  <si>
+    <t>BM7sus2</t>
+  </si>
+  <si>
+    <t>Elapsed (m, ms)</t>
+  </si>
+  <si>
+    <t>Bm</t>
+  </si>
+  <si>
+    <t>B7sus4</t>
+  </si>
+  <si>
+    <t>CMaug69M7(9)</t>
+  </si>
+  <si>
+    <t>Baug9</t>
+  </si>
+  <si>
+    <t>CM767M7sus4(9)</t>
+  </si>
+  <si>
+    <t>FM11</t>
+  </si>
+  <si>
+    <t>Summary measures</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>STDEV (Sample)</t>
+  </si>
+  <si>
+    <t>Samp Size</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>1QT</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>The NN is performing well enough for live performance.</t>
+  </si>
+  <si>
+    <t>3QT</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Neural net</t>
+  </si>
+  <si>
+    <t>Neural net + Translator</t>
+  </si>
+  <si>
+    <t>1QT-MIN</t>
+  </si>
+  <si>
+    <t>MED-1QT</t>
+  </si>
+  <si>
+    <t>3QT-MED</t>
+  </si>
+  <si>
+    <t>MAX-3QT</t>
+  </si>
+  <si>
+    <t>NN time</t>
+  </si>
+  <si>
+    <t>Total time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -451,7 +444,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="HK Grotesk"/>
@@ -466,7 +459,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="HK Grotesk"/>
@@ -481,24 +474,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="HK Grotesk"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="HK Grotesk"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="HK Grotesk"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -522,134 +503,85 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -708,15 +640,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -725,26 +675,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="HK Grotesk"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="HK Grotesk"/>
@@ -758,6 +708,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -773,16 +724,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:errBars>
-            <c:errDir val="y"/>
             <c:errBarType val="minus"/>
             <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
@@ -790,7 +753,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'2400 epochs'!$E$46:$E$46,'2400 epochs'!$G$46:$G$46</c:f>
+              <c:f>('2400 epochs'!$E$46:$E$46,'2400 epochs'!$G$46:$G$46)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -804,26 +767,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2400 epochs'!$E$47:$E$47,'2400 epochs'!$G$47:$G$47</c:f>
+              <c:f>('2400 epochs'!$E$47:$E$47,'2400 epochs'!$G$47:$G$47)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.44</c:v>
+                  <c:v>0.44000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1925</c:v>
+                  <c:v>1.1925000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95C7-412D-B63D-F2FB807CCBED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -831,17 +799,30 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2400 epochs'!$E$46:$E$46,'2400 epochs'!$G$46:$G$46</c:f>
+              <c:f>('2400 epochs'!$E$46:$E$46,'2400 epochs'!$G$46:$G$46)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -855,26 +836,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2400 epochs'!$E$48:$E$48,'2400 epochs'!$G$48:$G$48</c:f>
+              <c:f>('2400 epochs'!$E$48:$E$48,'2400 epochs'!$G$48:$G$48)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0899999999999996</c:v>
+                  <c:v>8.9999999999999858E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2175</c:v>
+                  <c:v>0.2174999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95C7-412D-B63D-F2FB807CCBED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -882,17 +868,30 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2400 epochs'!$E$46:$E$46,'2400 epochs'!$G$46:$G$46</c:f>
+              <c:f>('2400 epochs'!$E$46:$E$46,'2400 epochs'!$G$46:$G$46)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -906,19 +905,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2400 epochs'!$E$49:$E$49,'2400 epochs'!$G$49:$G$49</c:f>
+              <c:f>('2400 epochs'!$E$49:$E$49,'2400 epochs'!$G$49:$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.205</c:v>
+                  <c:v>0.20500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.395</c:v>
+                  <c:v>0.39500000000000046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-95C7-412D-B63D-F2FB807CCBED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -931,16 +935,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:errBars>
-            <c:errDir val="y"/>
             <c:errBarType val="minus"/>
             <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
@@ -948,7 +964,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'2400 epochs'!$E$46:$E$46,'2400 epochs'!$G$46:$G$46</c:f>
+              <c:f>('2400 epochs'!$E$46:$E$46,'2400 epochs'!$G$46:$G$46)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -962,20 +978,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2400 epochs'!$E$50:$E$50,'2400 epochs'!$G$50:$G$50</c:f>
+              <c:f>('2400 epochs'!$E$50:$E$50,'2400 epochs'!$G$50:$G$50)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.575</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.845</c:v>
+                  <c:v>0.84499999999999886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-95C7-412D-B63D-F2FB807CCBED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="10204729"/>
@@ -995,27 +1024,29 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="HK Grotesk"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95714024"/>
@@ -1023,6 +1054,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="95714024"/>
@@ -1035,7 +1067,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1052,20 +1084,22 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="HK Grotesk"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="10204729"/>
@@ -1081,23 +1115,29 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1111,14 +1151,20 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3007080" y="9324720"/>
-        <a:ext cx="6537240" cy="3714840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1131,31 +1177,323 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="K25:L40 D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" activeCellId="1" sqref="K25:L40 D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.6938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.8265306122449"/>
+    <col min="1" max="1" width="9.77734375" style="1"/>
+    <col min="2" max="2" width="33.6640625" style="1"/>
+    <col min="3" max="3" width="17.5546875" style="1"/>
+    <col min="4" max="1025" width="9.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1164,26 +1502,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
+    <row r="3" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.7">
+      <c r="A3"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1207,19 +1545,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1228,39 +1566,31 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K25:L40 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="K25:L40 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.8010204081633"/>
+    <col min="1" max="1" width="10.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1"/>
+    <col min="3" max="3" width="17.21875" style="1"/>
+    <col min="4" max="4" width="10.77734375" style="1"/>
+    <col min="5" max="5" width="16.109375" style="1"/>
+    <col min="6" max="6" width="17.88671875" style="1"/>
+    <col min="7" max="1025" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1282,12 +1612,12 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H1" s="2">
         <v>2400</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1296,19 +1626,19 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">D2*1000</f>
+      <c r="D2" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E17" si="0">D2*1000</f>
         <v>237</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1317,17 +1647,17 @@
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0.00142</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">D3*1000</f>
+      <c r="D3" s="1">
+        <v>1.42E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
         <v>1.42</v>
       </c>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1336,17 +1666,17 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>0.000865</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">D4*1000</f>
-        <v>0.865</v>
-      </c>
-      <c r="F4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="D4" s="1">
+        <v>8.6499999999999999E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1355,17 +1685,17 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>0.00133</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">D5*1000</f>
+      <c r="D5" s="1">
+        <v>1.33E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
-      <c r="F5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1374,17 +1704,17 @@
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>0.000851</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">D6*1000</f>
-        <v>0.851</v>
-      </c>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="D6" s="1">
+        <v>8.5099999999999998E-4</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1393,17 +1723,17 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>0.00089</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">D7*1000</f>
-        <v>0.89</v>
-      </c>
-      <c r="F7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="D7" s="1">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1412,19 +1742,19 @@
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">D8*1000</f>
+      <c r="D8" s="1">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
         <v>283</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1433,16 +1763,16 @@
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>0.000976</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">D9*1000</f>
-        <v>0.976</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="D9" s="1">
+        <v>9.7599999999999998E-4</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1451,16 +1781,16 @@
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>0.00153</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">D10*1000</f>
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="D10" s="1">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5299999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1469,16 +1799,16 @@
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="false">D11*1000</f>
+      <c r="D11" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1487,16 +1817,16 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>0.00129</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <f aca="false">D12*1000</f>
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="D12" s="1">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2899999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1505,16 +1835,16 @@
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <f aca="false">D13*1000</f>
+      <c r="D13" s="1">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1523,16 +1853,16 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>0.00279</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <f aca="false">D14*1000</f>
+      <c r="D14" s="1">
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
         <v>2.79</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1541,16 +1871,16 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>0.00133</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">D15*1000</f>
+      <c r="D15" s="1">
+        <v>1.33E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1559,16 +1889,16 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>0.01076</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">D16*1000</f>
+      <c r="D16" s="1">
+        <v>1.076E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
         <v>10.76</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1577,89 +1907,88 @@
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>0.00161</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <f aca="false">D17*1000</f>
+      <c r="D17" s="1">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
         <v>1.61</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1667,33 +1996,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25:L40"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="17.4948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.9285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.1683673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.8010204081633"/>
+    <col min="1" max="1" width="10.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1"/>
+    <col min="3" max="3" width="27.21875" style="1"/>
+    <col min="4" max="5" width="17.44140625" style="1"/>
+    <col min="6" max="6" width="10.77734375" style="1"/>
+    <col min="7" max="7" width="16.21875" style="1"/>
+    <col min="8" max="8" width="17.88671875" style="1"/>
+    <col min="9" max="9" width="16.44140625" style="1"/>
+    <col min="10" max="10" width="10.77734375" style="1"/>
+    <col min="11" max="11" width="21.21875" style="1"/>
+    <col min="12" max="12" width="25.33203125" style="1"/>
+    <col min="13" max="1025" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1721,11 +2047,11 @@
       <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>334</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1734,32 +2060,32 @@
       <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>0.00088</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">D2*1000</f>
+      <c r="D2" s="5">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:E31" si="0">D2*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>0.00151</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <f aca="false">F2*1000</f>
+      <c r="F2" s="1">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:G31" si="1">F2*1000</f>
         <v>1.51</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <f aca="false">1000*(F2-D2)</f>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I31" si="2">1000*(F2-D2)</f>
         <v>0.63</v>
       </c>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>388</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1768,34 +2094,34 @@
       <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <f aca="false">D3*1000</f>
+      <c r="D3" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.00212</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <f aca="false">F3*1000</f>
+      <c r="F3" s="1">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="1"/>
         <v>2.12</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <f aca="false">1000*(F3-D3)</f>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
         <v>0.82</v>
       </c>
-      <c r="K3" s="0"/>
+      <c r="K3"/>
       <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1804,34 +2130,34 @@
       <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>0.00137</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <f aca="false">D4*1000</f>
-        <v>1.37</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.00219</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <f aca="false">F4*1000</f>
+      <c r="D4" s="5">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3699999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
         <v>2.19</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">1000*(F4-D4)</f>
-        <v>0.82</v>
-      </c>
-      <c r="K4" s="0"/>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82000000000000017</v>
+      </c>
+      <c r="K4"/>
       <c r="L4" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1840,34 +2166,34 @@
       <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>0.00216</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <f aca="false">D5*1000</f>
+      <c r="D5" s="5">
+        <v>2.16E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>0.00305</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <f aca="false">F5*1000</f>
-        <v>3.05</v>
-      </c>
-      <c r="H5" s="1" t="n">
+      <c r="F5" s="1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0500000000000003</v>
+      </c>
+      <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">1000*(F5-D5)</f>
-        <v>0.89</v>
-      </c>
-      <c r="K5" s="0"/>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="K5"/>
       <c r="L5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1876,32 +2202,32 @@
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>0.00147</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <f aca="false">D6*1000</f>
+      <c r="D6" s="5">
+        <v>1.47E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1.47</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>0.00237</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <f aca="false">F6*1000</f>
+      <c r="F6" s="1">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
         <v>2.37</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">1000*(F6-D6)</f>
-        <v>0.9</v>
-      </c>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1910,26 +2236,26 @@
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>0.00148</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <f aca="false">D7*1000</f>
+      <c r="D7" s="5">
+        <v>1.48E-3</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>1.48</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <f aca="false">F7*1000</f>
+      <c r="F7" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>4</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <f aca="false">1000*(F7-D7)</f>
-        <v>0.92</v>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91999999999999982</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>55</v>
@@ -1938,8 +2264,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1948,26 +2274,26 @@
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>0.00201</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <f aca="false">D8*1000</f>
-        <v>2.01</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0.00296</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <f aca="false">F8*1000</f>
+      <c r="D8" s="5">
+        <v>2.0100000000000001E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.96E-3</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
         <v>2.96</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <f aca="false">1000*(F8-D8)</f>
-        <v>0.95</v>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94999999999999984</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>59</v>
@@ -1976,8 +2302,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>305</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1986,34 +2312,34 @@
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <f aca="false">D9*1000</f>
+      <c r="D9" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>0.00225</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <f aca="false">F9*1000</f>
+      <c r="F9" s="1">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>4</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <f aca="false">1000*(F9-D9)</f>
-        <v>0.95</v>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94999999999999984</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2022,36 +2348,36 @@
       <c r="C10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>0.00199</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <f aca="false">D10*1000</f>
+      <c r="D10" s="5">
+        <v>1.99E-3</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>0.00298</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <f aca="false">F10*1000</f>
+      <c r="F10" s="1">
+        <v>2.98E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
         <v>2.98</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <f aca="false">1000*(F10-D10)</f>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="10" t="n">
-        <v>1.52266666666667</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="L10" s="10">
+        <v>1.5226666666666699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2060,37 +2386,37 @@
       <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>0.00219</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <f aca="false">D11*1000</f>
+      <c r="D11" s="5">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
         <v>2.19</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>0.00318</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <f aca="false">F11*1000</f>
+      <c r="F11" s="1">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
         <v>3.18</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <f aca="false">1000*(F11-D11)</f>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="10" t="n">
-        <f aca="false">_xlfn.STDEV.S(E2:E31)</f>
-        <v>0.315877904537042</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="L11" s="10">
+        <f>_xlfn.STDEV.S(E2:E31)</f>
+        <v>0.31587790453704268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2099,36 +2425,36 @@
       <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>0.00162</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <f aca="false">D12*1000</f>
-        <v>1.62</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0.00263</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <f aca="false">F12*1000</f>
+      <c r="D12" s="5">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.63E-3</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <f aca="false">1000*(F12-D12)</f>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
         <v>1.01</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="L12" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>424</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2137,36 +2463,36 @@
       <c r="C13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.00152</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <f aca="false">D13*1000</f>
+      <c r="D13" s="5">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
         <v>1.52</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <f aca="false">F13*1000</f>
+      <c r="F13" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <f aca="false">1000*(F13-D13)</f>
-        <v>1.18</v>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1800000000000002</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="10" t="n">
+      <c r="L13" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>247</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2175,37 +2501,37 @@
       <c r="C14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.00142</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <f aca="false">D14*1000</f>
+      <c r="D14" s="5">
+        <v>1.42E-3</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
         <v>1.42</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>0.00271</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <f aca="false">F14*1000</f>
+      <c r="F14" s="1">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
         <v>2.71</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <f aca="false">1000*(F14-D14)</f>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
         <v>1.29</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="10" t="n">
-        <f aca="false">L11/SQRT(L12)</f>
-        <v>0.0576711512441338</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="L14" s="10">
+        <f>L11/SQRT(L12)</f>
+        <v>5.7671151244133911E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>438</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2214,36 +2540,36 @@
       <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <f aca="false">D15*1000</f>
+      <c r="D15" s="5">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <v>0.00274</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <f aca="false">F15*1000</f>
-        <v>2.74</v>
-      </c>
-      <c r="H15" s="1" t="n">
+      <c r="F15" s="1">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7399999999999998</v>
+      </c>
+      <c r="H15" s="1">
         <v>6</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <f aca="false">1000*(F15-D15)</f>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
         <v>1.42</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="10" t="n">
+      <c r="L15" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>217</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2252,36 +2578,36 @@
       <c r="C16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <f aca="false">D16*1000</f>
+      <c r="D16" s="5">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
-      <c r="F16" s="1" t="n">
-        <v>0.00277</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <f aca="false">F16*1000</f>
+      <c r="F16" s="1">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
         <v>2.77</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="1">
         <v>4</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">1000*(F16-D16)</f>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
         <v>1.45</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="10" t="n">
+      <c r="L16" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>368</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2290,37 +2616,37 @@
       <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>0.00157</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <f aca="false">D17*1000</f>
+      <c r="D17" s="5">
+        <v>1.57E-3</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
         <v>1.57</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>0.00306</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <f aca="false">F17*1000</f>
-        <v>3.06</v>
-      </c>
-      <c r="H17" s="1" t="n">
+      <c r="F17" s="1">
+        <v>3.0599999999999998E-3</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0599999999999996</v>
+      </c>
+      <c r="H17" s="1">
         <v>4</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <f aca="false">1000*(F17-D17)</f>
-        <v>1.49</v>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4899999999999998</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="11" t="n">
-        <f aca="false">(L14-L13)/L11</f>
-        <v>-31.4752273139445</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="L17" s="11">
+        <f>(L14-L13)/L11</f>
+        <v>-31.475227313944458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>145</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2329,37 +2655,37 @@
       <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>0.00129</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <f aca="false">D18*1000</f>
-        <v>1.29</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <f aca="false">F18*1000</f>
+      <c r="D18" s="5">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2899999999999998</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <f aca="false">1000*(F18-D18)</f>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
         <v>1.51</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="10" t="n">
-        <f aca="false">_xlfn.T.DIST(L17,L16,1)</f>
-        <v>2.84319686821599E-024</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="L18" s="10">
+        <f>_xlfn.T.DIST(L17,L16,1)</f>
+        <v>2.843196868216149E-24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>405</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2368,37 +2694,37 @@
       <c r="C19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>0.00131</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <f aca="false">D19*1000</f>
+      <c r="D19" s="5">
+        <v>1.31E-3</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
-      <c r="F19" s="1" t="n">
-        <v>0.00283</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <f aca="false">F19*1000</f>
+      <c r="F19" s="1">
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
         <v>2.83</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="1">
         <v>4</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <f aca="false">1000*(F19-D19)</f>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="11" t="n">
-        <f aca="false">_xlfn.T.INV(L15,L16)</f>
-        <v>-1.6991270265335</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="L19" s="11">
+        <f>_xlfn.T.INV(L15,L16)</f>
+        <v>-1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2407,32 +2733,32 @@
       <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.00127</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <f aca="false">D20*1000</f>
+      <c r="D20" s="5">
+        <v>1.2700000000000001E-3</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
         <v>1.27</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>0.00286</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <f aca="false">F20*1000</f>
-        <v>2.86</v>
-      </c>
-      <c r="H20" s="1" t="n">
+      <c r="F20" s="1">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8600000000000003</v>
+      </c>
+      <c r="H20" s="1">
         <v>5</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <f aca="false">1000*(F20-D20)</f>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
         <v>1.59</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2441,25 +2767,25 @@
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="5" t="n">
-        <v>0.00128</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <f aca="false">D21*1000</f>
+      <c r="D21" s="5">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>0.00288</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <f aca="false">F21*1000</f>
-        <v>2.88</v>
-      </c>
-      <c r="H21" s="1" t="n">
+      <c r="F21" s="1">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="H21" s="1">
         <v>6</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <f aca="false">1000*(F21-D21)</f>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -2469,8 +2795,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>182</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2479,25 +2805,25 @@
       <c r="C22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <f aca="false">D22*1000</f>
+      <c r="D22" s="5">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="F22" s="1" t="n">
-        <v>0.00334</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <f aca="false">F22*1000</f>
-        <v>3.34</v>
-      </c>
-      <c r="H22" s="1" t="n">
+      <c r="F22" s="1">
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3400000000000003</v>
+      </c>
+      <c r="H22" s="1">
         <v>4</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <f aca="false">1000*(F22-D22)</f>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
         <v>1.74</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -2507,8 +2833,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>204</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2517,32 +2843,32 @@
       <c r="C23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.00133</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <f aca="false">D23*1000</f>
+      <c r="D23" s="5">
+        <v>1.33E-3</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
-      <c r="F23" s="1" t="n">
-        <v>0.00313</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <f aca="false">F23*1000</f>
+      <c r="F23" s="1">
+        <v>3.13E-3</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
         <v>3.13</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="1">
         <v>5</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <f aca="false">1000*(F23-D23)</f>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>227</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2551,32 +2877,32 @@
       <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="5" t="n">
-        <v>0.00203</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <f aca="false">D24*1000</f>
-        <v>2.03</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>0.00391</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <f aca="false">F24*1000</f>
+      <c r="D24" s="5">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
         <v>3.91</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="1">
         <v>3</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <f aca="false">1000*(F24-D24)</f>
-        <v>1.88</v>
-      </c>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8800000000000001</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>272</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2585,25 +2911,25 @@
       <c r="C25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="5" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <f aca="false">D25*1000</f>
+      <c r="D25" s="5">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
-      <c r="F25" s="1" t="n">
-        <v>0.00324</v>
-      </c>
-      <c r="G25" s="7" t="n">
-        <f aca="false">F25*1000</f>
-        <v>3.24</v>
-      </c>
-      <c r="H25" s="1" t="n">
+      <c r="F25" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="H25" s="1">
         <v>4</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <f aca="false">1000*(F25-D25)</f>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
         <v>1.92</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -2613,8 +2939,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>357</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2623,25 +2949,25 @@
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="5" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <f aca="false">D26*1000</f>
+      <c r="D26" s="5">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
-      <c r="F26" s="1" t="n">
-        <v>0.00334</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <f aca="false">F26*1000</f>
-        <v>3.34</v>
-      </c>
-      <c r="H26" s="1" t="n">
+      <c r="F26" s="1">
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3400000000000003</v>
+      </c>
+      <c r="H26" s="1">
         <v>5</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <f aca="false">1000*(F26-D26)</f>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
         <v>2.02</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2651,8 +2977,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>420</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2661,25 +2987,25 @@
       <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="5" t="n">
-        <v>0.00162</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <f aca="false">D27*1000</f>
-        <v>1.62</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>0.00372</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <f aca="false">F27*1000</f>
+      <c r="D27" s="5">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="1">
         <v>4</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <f aca="false">1000*(F27-D27)</f>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="K27" s="9"/>
@@ -2687,8 +3013,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>409</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2697,37 +3023,37 @@
       <c r="C28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="5" t="n">
-        <v>0.00205</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <f aca="false">D28*1000</f>
-        <v>2.05</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>0.00416</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <f aca="false">F28*1000</f>
-        <v>4.16</v>
-      </c>
-      <c r="H28" s="1" t="n">
+      <c r="D28" s="5">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4.1599999999999996E-3</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>4.1599999999999993</v>
+      </c>
+      <c r="H28" s="1">
         <v>3</v>
       </c>
-      <c r="I28" s="1" t="n">
-        <f aca="false">1000*(F28-D28)</f>
-        <v>2.11</v>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1099999999999994</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L28" s="10" t="n">
-        <f aca="false">G36</f>
-        <v>2.95466666666667</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="L28" s="10">
+        <f>G36</f>
+        <v>2.9546666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>423</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2736,37 +3062,37 @@
       <c r="C29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="5" t="n">
-        <v>0.00159</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <f aca="false">D29*1000</f>
+      <c r="D29" s="5">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
         <v>1.59</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <v>0.00372</v>
-      </c>
-      <c r="G29" s="7" t="n">
-        <f aca="false">F29*1000</f>
+      <c r="F29" s="1">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="1">
         <v>4</v>
       </c>
-      <c r="I29" s="1" t="n">
-        <f aca="false">1000*(F29-D29)</f>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
         <v>2.13</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="10" t="n">
-        <f aca="false">G37</f>
-        <v>0.575414293527196</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="L29" s="10">
+        <f>G37</f>
+        <v>0.57541429352719786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>427</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2775,36 +3101,36 @@
       <c r="C30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="5" t="n">
-        <v>0.00135</v>
-      </c>
-      <c r="E30" s="6" t="n">
-        <f aca="false">D30*1000</f>
+      <c r="D30" s="5">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
-      <c r="F30" s="1" t="n">
-        <v>0.00348</v>
-      </c>
-      <c r="G30" s="7" t="n">
-        <f aca="false">F30*1000</f>
+      <c r="F30" s="1">
+        <v>3.48E-3</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="1"/>
         <v>3.48</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="1">
         <v>5</v>
       </c>
-      <c r="I30" s="1" t="n">
-        <f aca="false">1000*(F30-D30)</f>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
         <v>2.13</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="10" t="n">
+      <c r="L30" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>211</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2813,157 +3139,157 @@
       <c r="C31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="5" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="E31" s="6" t="n">
-        <f aca="false">D31*1000</f>
+      <c r="D31" s="5">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F31" s="1" t="n">
-        <v>0.00361</v>
-      </c>
-      <c r="G31" s="7" t="n">
-        <f aca="false">F31*1000</f>
+      <c r="F31" s="1">
+        <v>3.6099999999999999E-3</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="1"/>
         <v>3.61</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="1">
         <v>6</v>
       </c>
-      <c r="I31" s="1" t="n">
-        <f aca="false">1000*(F31-D31)</f>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
         <v>2.21</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="10" t="n">
+      <c r="L31" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="I32" s="0"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="I32"/>
       <c r="K32" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="10" t="n">
-        <f aca="false">L29/SQRT(L30)</f>
-        <v>0.105055796158581</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="I33" s="0"/>
+      <c r="L32" s="10">
+        <f>L29/SQRT(L30)</f>
+        <v>0.10505579615858172</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="I33"/>
       <c r="K33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="10" t="n">
+      <c r="L33" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
-      <c r="C34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="I34" s="0"/>
+      <c r="C34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="I34"/>
       <c r="K34" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L34" s="10" t="n">
+      <c r="L34" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="I35" s="0"/>
+      <c r="I35"/>
       <c r="K35" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L35" s="11" t="n">
-        <f aca="false">(L32-L31)/L29</f>
-        <v>-17.1962085668519</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="11">
+        <f>(L32-L31)/L29</f>
+        <v>-17.196208566851876</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="14" t="n">
-        <f aca="false">AVERAGE(E2:E31)</f>
-        <v>1.52266666666667</v>
+      <c r="E36" s="14">
+        <f>AVERAGE(E2:E31)</f>
+        <v>1.5226666666666666</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="15" t="n">
-        <f aca="false">AVERAGE(G2:G31)</f>
-        <v>2.95466666666667</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <f aca="false">AVERAGE(I2:I31)</f>
-        <v>1.432</v>
+      <c r="G36" s="15">
+        <f>AVERAGE(G2:G31)</f>
+        <v>2.9546666666666668</v>
+      </c>
+      <c r="I36" s="2">
+        <f>AVERAGE(I2:I31)</f>
+        <v>1.4320000000000002</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L36" s="10" t="n">
-        <f aca="false">_xlfn.T.DIST(L35,L34,1)</f>
-        <v>4.70988820804791E-017</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L36" s="10">
+        <f>_xlfn.T.DIST(L35,L34,1)</f>
+        <v>4.7098882080482392E-17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="14" t="n">
-        <f aca="false">_xlfn.STDEV.S(E2:E31)</f>
-        <v>0.315877904537042</v>
+      <c r="E37" s="14">
+        <f>_xlfn.STDEV.S(E2:E31)</f>
+        <v>0.31587790453704268</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="G37" s="15" t="n">
-        <f aca="false">_xlfn.STDEV.S(G2:G31)</f>
-        <v>0.575414293527196</v>
+      <c r="G37" s="15">
+        <f>_xlfn.STDEV.S(G2:G31)</f>
+        <v>0.57541429352719786</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L37" s="11" t="n">
-        <f aca="false">_xlfn.T.INV(L33,L34)</f>
-        <v>-1.6991270265335</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L37" s="11">
+        <f>_xlfn.T.INV(L33,L34)</f>
+        <v>-1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="14" t="n">
+      <c r="E38" s="14">
         <v>30</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="15" t="n">
+      <c r="G38" s="15">
         <v>30</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="G39" s="0"/>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C39"/>
+      <c r="E39"/>
+      <c r="G39"/>
       <c r="K39" s="1" t="s">
         <v>93</v>
       </c>
@@ -2971,16 +3297,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="1" t="n">
-        <f aca="false">MIN(E2:E31)</f>
+      <c r="E40" s="1">
+        <f>MIN(E2:E31)</f>
         <v>0.88</v>
       </c>
-      <c r="G40" s="1" t="n">
-        <f aca="false">MIN(G2:G31)</f>
+      <c r="G40" s="1">
+        <f>MIN(G2:G31)</f>
         <v>1.51</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -2990,69 +3316,69 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="1" t="n">
-        <f aca="false">_xlfn.QUARTILE.INC(E2:E31, 1)</f>
+      <c r="E41" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 1)</f>
         <v>1.32</v>
       </c>
-      <c r="G41" s="1" t="n">
-        <f aca="false">_xlfn.QUARTILE.INC(G2:G31, 1)</f>
-        <v>2.7025</v>
-      </c>
-      <c r="L41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="1">
+        <f>_xlfn.QUARTILE.INC(G2:G31, 1)</f>
+        <v>2.7025000000000001</v>
+      </c>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <f aca="false">_xlfn.QUARTILE.INC(E2:E31, 2)</f>
+      <c r="E42" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 2)</f>
         <v>1.41</v>
       </c>
-      <c r="G42" s="1" t="n">
-        <f aca="false">_xlfn.QUARTILE.INC(G2:G31, 2)</f>
+      <c r="G42" s="1">
+        <f>_xlfn.QUARTILE.INC(G2:G31, 2)</f>
         <v>2.92</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="1" t="n">
-        <f aca="false">_xlfn.QUARTILE.INC(E2:E31, 3)</f>
+      <c r="E43" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 3)</f>
         <v>1.615</v>
       </c>
-      <c r="G43" s="1" t="n">
-        <f aca="false">_xlfn.QUARTILE.INC(G2:G31, 3)</f>
-        <v>3.315</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="1">
+        <f>_xlfn.QUARTILE.INC(G2:G31, 3)</f>
+        <v>3.3150000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="1" t="n">
-        <f aca="false">MAX(E2:E31)</f>
+      <c r="E44" s="1">
+        <f>MAX(E2:E31)</f>
         <v>2.19</v>
       </c>
-      <c r="G44" s="1" t="n">
-        <f aca="false">MAX(G2:G31)</f>
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="G45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0"/>
+      <c r="G44" s="1">
+        <f>MAX(G2:G31)</f>
+        <v>4.1599999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C45"/>
+      <c r="E45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C46"/>
       <c r="E46" s="2" t="s">
         <v>121</v>
       </c>
@@ -3060,247 +3386,238 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="1" t="n">
-        <f aca="false">E41-E40</f>
-        <v>0.44</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <f aca="false">G41-G40</f>
-        <v>1.1925</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="1">
+        <f>E41-E40</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="G47" s="1">
+        <f>G41-G40</f>
+        <v>1.1925000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="1" t="n">
-        <f aca="false">E42-E41</f>
-        <v>0.0899999999999996</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <f aca="false">G42-G41</f>
-        <v>0.2175</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="1">
+        <f>E42-E41</f>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <f>G42-G41</f>
+        <v>0.2174999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="1" t="n">
-        <f aca="false">E43-E42</f>
-        <v>0.205</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <f aca="false">G43-G42</f>
-        <v>0.395</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="1">
+        <f>E43-E42</f>
+        <v>0.20500000000000007</v>
+      </c>
+      <c r="G49" s="1">
+        <f>G43-G42</f>
+        <v>0.39500000000000046</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="1" t="n">
-        <f aca="false">E44-E43</f>
-        <v>0.575</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <f aca="false">G44-G43</f>
-        <v>0.845</v>
+      <c r="E50" s="1">
+        <f>E44-E43</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G50" s="1">
+        <f>G44-G43</f>
+        <v>0.84499999999999886</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="K25:L40 C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="K25:L40 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.7704081632653"/>
+    <col min="1" max="1" width="18.33203125"/>
+    <col min="2" max="1025" width="11.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>0.88</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>1.37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>2.16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>1.47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>1.48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>1.99</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>2.19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>1.52</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>1.42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>1.57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>1.29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>1.31</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>1.27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>1.28</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>1.6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>1.33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>1.62</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>1.59</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>1.35</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>1.4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3308,24 +3625,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="K25:L40 C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" activeCellId="1" sqref="K25:L40 C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
+    <col min="1" max="1" width="15.77734375"/>
+    <col min="2" max="2" width="16.6640625"/>
+    <col min="3" max="1025" width="11.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3333,253 +3647,264 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>1.51</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>2.12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>2.19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>3.05</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>2.37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="7">
         <v>2.96</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="7">
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="7">
         <v>2.98</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="7">
         <v>3.18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>2.63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="7">
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="7">
         <v>2.71</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="7">
         <v>2.74</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="7">
         <v>2.77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="7">
         <v>3.06</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="7">
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="7">
         <v>2.83</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="7">
         <v>2.86</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="7">
         <v>2.88</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="7">
         <v>3.34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="7">
         <v>3.13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="7">
         <v>3.91</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="7">
         <v>3.24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="7">
         <v>3.34</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="7">
         <v>3.72</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="7">
         <v>4.16</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="7">
         <v>3.72</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="7">
         <v>3.48</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="7">
         <v>3.61</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EEE59C-7AEA-4A4E-B2DB-2A83C9882BEF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joachim\Documents\PSHS 2019\5\R2_B09_Chord_Identification\documentation\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\PSHS 2019\5\R2_B09_Chord_Identification\documentation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF3C86-CD64-4024-BC9F-A14E76CDFD3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C143FEFB-70CF-4C97-B088-C1466558AE78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="989" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,11 @@
     <sheet name="2400 epochs" sheetId="3" r:id="rId3"/>
     <sheet name="NNtime" sheetId="4" r:id="rId4"/>
     <sheet name="Totaltime" sheetId="5" r:id="rId5"/>
-    <sheet name="6_NN2_4000-epochs" sheetId="6" r:id="rId6"/>
+    <sheet name="6_NN2_4000" sheetId="7" r:id="rId6"/>
+    <sheet name="A" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="182">
   <si>
     <t>R2-B09</t>
   </si>
@@ -422,6 +418,165 @@
   </si>
   <si>
     <t>Total time</t>
+  </si>
+  <si>
+    <t>Bmin</t>
+  </si>
+  <si>
+    <t>G#o7</t>
+  </si>
+  <si>
+    <t>GmM7(9)</t>
+  </si>
+  <si>
+    <t>A#M7sus2</t>
+  </si>
+  <si>
+    <t>Caug7</t>
+  </si>
+  <si>
+    <t>F#sus4</t>
+  </si>
+  <si>
+    <t>Em7</t>
+  </si>
+  <si>
+    <t>Gdim7</t>
+  </si>
+  <si>
+    <t>G#m7sus2</t>
+  </si>
+  <si>
+    <t>G#dim</t>
+  </si>
+  <si>
+    <t>Faug11</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>A#11</t>
+  </si>
+  <si>
+    <t>Aaug9</t>
+  </si>
+  <si>
+    <t>G#M9sus2</t>
+  </si>
+  <si>
+    <t>D#M9</t>
+  </si>
+  <si>
+    <t>BM9sus2</t>
+  </si>
+  <si>
+    <t>D#m6(9)</t>
+  </si>
+  <si>
+    <t>F#min</t>
+  </si>
+  <si>
+    <t>Faug</t>
+  </si>
+  <si>
+    <t>Do7</t>
+  </si>
+  <si>
+    <t>Adim7</t>
+  </si>
+  <si>
+    <t>C#M11</t>
+  </si>
+  <si>
+    <t>G#M7</t>
+  </si>
+  <si>
+    <t>F#M7sus4</t>
+  </si>
+  <si>
+    <t>G#9sus4</t>
+  </si>
+  <si>
+    <t>Esus2</t>
+  </si>
+  <si>
+    <t>D#aug7</t>
+  </si>
+  <si>
+    <t>G#dim9</t>
+  </si>
+  <si>
+    <t>CM9sus4</t>
+  </si>
+  <si>
+    <t>EM6(9)</t>
+  </si>
+  <si>
+    <t>DM7sus2</t>
+  </si>
+  <si>
+    <t>F#mM7</t>
+  </si>
+  <si>
+    <t>Edim9</t>
+  </si>
+  <si>
+    <t>Em6(9)</t>
+  </si>
+  <si>
+    <t>C#m9</t>
+  </si>
+  <si>
+    <t>A#9sus4</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>DmM7(9)</t>
+  </si>
+  <si>
+    <t>A7sus2</t>
+  </si>
+  <si>
+    <t>F#m7</t>
+  </si>
+  <si>
+    <t>G#dim7</t>
+  </si>
+  <si>
+    <t>F#M6</t>
+  </si>
+  <si>
+    <t>Dmaj</t>
+  </si>
+  <si>
+    <t>F#11sus2</t>
+  </si>
+  <si>
+    <t>G7sus4</t>
+  </si>
+  <si>
+    <t>Gdim</t>
+  </si>
+  <si>
+    <t>Gm6</t>
+  </si>
+  <si>
+    <t>EM7</t>
+  </si>
+  <si>
+    <t>G#M11</t>
+  </si>
+  <si>
+    <t>Csus2</t>
+  </si>
+  <si>
+    <t>H0: m &gt;= 40</t>
+  </si>
+  <si>
+    <t>HA: m &lt; 40</t>
   </si>
 </sst>
 </file>
@@ -688,7 +843,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1136,6 +1291,488 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="HK Grotesk"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="HK Grotesk"/>
+              </a:rPr>
+              <a:t>Neural network response times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('6_NN2_4000'!$E$46,'6_NN2_4000'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('6_NN2_4000'!$E$47,'6_NN2_4000'!$G$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.21250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43249999999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBE5-44DC-BA69-F0571F1F817B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('6_NN2_4000'!$E$46,'6_NN2_4000'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('6_NN2_4000'!$E$48,'6_NN2_4000'!$G$48)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.7499999999999969E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000622E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBE5-44DC-BA69-F0571F1F817B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A5A5A5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('6_NN2_4000'!$E$46,'6_NN2_4000'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('6_NN2_4000'!$E$49,'6_NN2_4000'!$G$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.7499999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0925000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DBE5-44DC-BA69-F0571F1F817B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('6_NN2_4000'!$E$46,'6_NN2_4000'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('6_NN2_4000'!$E$50,'6_NN2_4000'!$G$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.40250000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9074999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DBE5-44DC-BA69-F0571F1F817B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="10204729"/>
+        <c:axId val="95714024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10204729"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="HK Grotesk"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95714024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95714024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="HK Grotesk"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10204729"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1161,6 +1798,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1086840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342746</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56469778-E25B-4E54-8527-71879B61B600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1480,20 +2160,20 @@
       <selection activeCell="D3" activeCellId="1" sqref="K25:L40 D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="1"/>
-    <col min="2" max="2" width="33.6640625" style="1"/>
-    <col min="3" max="3" width="17.5546875" style="1"/>
-    <col min="4" max="1025" width="9.77734375" style="1"/>
+    <col min="1" max="1" width="9.765625" style="1"/>
+    <col min="2" max="2" width="33.69140625" style="1"/>
+    <col min="3" max="3" width="17.53515625" style="1"/>
+    <col min="4" max="1025" width="9.765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1"/>
       <c r="B1"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1502,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:4" ht="34.299999999999997" x14ac:dyDescent="0.95">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1511,17 +2191,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1537,7 +2217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1545,19 +2225,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1579,18 +2259,18 @@
       <selection activeCellId="1" sqref="K25:L40 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1"/>
-    <col min="2" max="2" width="16.44140625" style="1"/>
-    <col min="3" max="3" width="17.21875" style="1"/>
-    <col min="4" max="4" width="10.77734375" style="1"/>
-    <col min="5" max="5" width="16.109375" style="1"/>
-    <col min="6" max="6" width="17.88671875" style="1"/>
-    <col min="7" max="1025" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="10.765625" style="1"/>
+    <col min="2" max="2" width="16.4609375" style="1"/>
+    <col min="3" max="3" width="17.23046875" style="1"/>
+    <col min="4" max="4" width="10.765625" style="1"/>
+    <col min="5" max="5" width="16.07421875" style="1"/>
+    <col min="6" max="6" width="17.84375" style="1"/>
+    <col min="7" max="1025" width="10.765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +2296,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1637,7 +2317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1656,7 +2336,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1675,7 +2355,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1694,7 +2374,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1713,7 +2393,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1732,7 +2412,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1753,7 +2433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1771,7 +2451,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1789,7 +2469,7 @@
         <v>1.5299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1807,7 +2487,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1825,7 +2505,7 @@
         <v>1.2899999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1843,7 +2523,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1861,7 +2541,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1879,7 +2559,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1897,7 +2577,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1915,72 +2595,72 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2000,26 +2680,26 @@
   <dimension ref="A1:AMK50"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1"/>
-    <col min="2" max="2" width="16.44140625" style="1"/>
-    <col min="3" max="3" width="27.21875" style="1"/>
-    <col min="4" max="5" width="17.44140625" style="1"/>
-    <col min="6" max="6" width="10.77734375" style="1"/>
-    <col min="7" max="7" width="16.21875" style="1"/>
-    <col min="8" max="8" width="17.88671875" style="1"/>
-    <col min="9" max="9" width="16.44140625" style="1"/>
-    <col min="10" max="10" width="10.77734375" style="1"/>
-    <col min="11" max="11" width="21.21875" style="1"/>
-    <col min="12" max="12" width="25.33203125" style="1"/>
-    <col min="13" max="1025" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="10.765625" style="1"/>
+    <col min="2" max="2" width="16.4609375" style="1"/>
+    <col min="3" max="3" width="27.23046875" style="1"/>
+    <col min="4" max="5" width="17.4609375" style="1"/>
+    <col min="6" max="6" width="10.765625" style="1"/>
+    <col min="7" max="7" width="16.23046875" style="1"/>
+    <col min="8" max="8" width="17.84375" style="1"/>
+    <col min="9" max="9" width="16.4609375" style="1"/>
+    <col min="10" max="10" width="10.765625" style="1"/>
+    <col min="11" max="11" width="21.23046875" style="1"/>
+    <col min="12" max="12" width="25.3046875" style="1"/>
+    <col min="13" max="1025" width="10.765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2050,7 +2730,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>334</v>
       </c>
@@ -2084,7 +2764,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>388</v>
       </c>
@@ -2120,7 +2800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>77</v>
       </c>
@@ -2156,7 +2836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>150</v>
       </c>
@@ -2192,7 +2872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>82</v>
       </c>
@@ -2226,7 +2906,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>44</v>
       </c>
@@ -2264,7 +2944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>302</v>
       </c>
@@ -2302,7 +2982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>305</v>
       </c>
@@ -2338,7 +3018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2376,7 +3056,7 @@
         <v>1.5226666666666699</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -2415,7 +3095,7 @@
         <v>0.31587790453704268</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>25</v>
       </c>
@@ -2453,7 +3133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>424</v>
       </c>
@@ -2491,7 +3171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>247</v>
       </c>
@@ -2530,7 +3210,7 @@
         <v>5.7671151244133911E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>438</v>
       </c>
@@ -2568,7 +3248,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>217</v>
       </c>
@@ -2606,7 +3286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>368</v>
       </c>
@@ -2645,7 +3325,7 @@
         <v>-31.475227313944458</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>145</v>
       </c>
@@ -2684,7 +3364,7 @@
         <v>2.843196868216149E-24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>405</v>
       </c>
@@ -2723,7 +3403,7 @@
         <v>-1.6991270265334986</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>58</v>
       </c>
@@ -2757,7 +3437,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>68</v>
       </c>
@@ -2795,7 +3475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>182</v>
       </c>
@@ -2833,7 +3513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>204</v>
       </c>
@@ -2867,7 +3547,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>227</v>
       </c>
@@ -2901,7 +3581,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>272</v>
       </c>
@@ -2939,7 +3619,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>357</v>
       </c>
@@ -2977,7 +3657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>420</v>
       </c>
@@ -3013,7 +3693,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>409</v>
       </c>
@@ -3052,7 +3732,7 @@
         <v>2.9546666666666668</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>423</v>
       </c>
@@ -3091,7 +3771,7 @@
         <v>0.57541429352719786</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>427</v>
       </c>
@@ -3129,7 +3809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>211</v>
       </c>
@@ -3167,7 +3847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B32"/>
       <c r="C32"/>
       <c r="E32"/>
@@ -3182,7 +3862,7 @@
         <v>0.10505579615858172</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33"/>
       <c r="C33"/>
       <c r="E33"/>
@@ -3196,7 +3876,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34"/>
       <c r="E34"/>
@@ -3210,7 +3890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
@@ -3226,7 +3906,7 @@
         <v>-17.196208566851876</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C36" s="2" t="s">
         <v>112</v>
       </c>
@@ -3251,7 +3931,7 @@
         <v>4.7098882080482392E-17</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
@@ -3272,7 +3952,7 @@
         <v>-1.6991270265334986</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C38" s="2" t="s">
         <v>114</v>
       </c>
@@ -3286,7 +3966,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C39"/>
       <c r="E39"/>
       <c r="G39"/>
@@ -3297,7 +3977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C40" s="2" t="s">
         <v>115</v>
       </c>
@@ -3316,7 +3996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C41" s="2" t="s">
         <v>116</v>
       </c>
@@ -3330,7 +4010,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
@@ -3346,7 +4026,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
@@ -3359,7 +4039,7 @@
         <v>3.3150000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C44" s="2" t="s">
         <v>120</v>
       </c>
@@ -3372,12 +4052,12 @@
         <v>4.1599999999999993</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C45"/>
       <c r="E45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C46"/>
       <c r="E46" s="2" t="s">
         <v>121</v>
@@ -3386,7 +4066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C47" s="2" t="s">
         <v>123</v>
       </c>
@@ -3399,7 +4079,7 @@
         <v>1.1925000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
@@ -3412,7 +4092,7 @@
         <v>0.2174999999999998</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C49" s="2" t="s">
         <v>125</v>
       </c>
@@ -3425,7 +4105,7 @@
         <v>0.39500000000000046</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
@@ -3453,163 +4133,163 @@
       <selection activeCell="C1" activeCellId="1" sqref="K25:L40 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125"/>
-    <col min="2" max="1025" width="11.77734375"/>
+    <col min="1" max="1" width="18.3046875"/>
+    <col min="2" max="1025" width="11.765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>0.88</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>1.37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>2.16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>1.47</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>1.48</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>1.99</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>2.19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>1.52</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>1.42</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>1.57</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>1.29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>1.31</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>1.27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>1.28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>1.6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>1.33</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>1.62</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>1.59</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>1.35</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>1.4</v>
       </c>
@@ -3632,14 +4312,14 @@
       <selection activeCell="C6" activeCellId="1" sqref="K25:L40 C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.77734375"/>
-    <col min="2" max="2" width="16.6640625"/>
-    <col min="3" max="1025" width="11.77734375"/>
+    <col min="1" max="1" width="15.765625"/>
+    <col min="2" max="2" width="16.69140625"/>
+    <col min="3" max="1025" width="11.765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3647,7 +4327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -3655,7 +4335,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -3663,7 +4343,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -3671,7 +4351,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -3679,7 +4359,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -3687,7 +4367,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -3695,7 +4375,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -3703,7 +4383,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -3711,7 +4391,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -3719,7 +4399,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -3727,7 +4407,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -3735,7 +4415,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -3743,7 +4423,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,7 +4431,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -3759,7 +4439,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -3767,7 +4447,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -3775,7 +4455,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -3783,7 +4463,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
@@ -3791,7 +4471,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
@@ -3799,7 +4479,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -3807,7 +4487,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
@@ -3815,7 +4495,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -3823,7 +4503,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -3831,7 +4511,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -3839,7 +4519,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -3847,7 +4527,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -3855,7 +4535,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -3863,7 +4543,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -3871,7 +4551,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -3879,7 +4559,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -3898,12 +4578,1381 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96F28FD-0BBF-4F5B-9859-054629604D05}">
+  <dimension ref="A1:AMK50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.23046875" style="1"/>
+    <col min="2" max="2" width="15.84375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.53515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.61328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.23046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.69140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.23046875" style="1"/>
+    <col min="11" max="11" width="17.3046875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.61328125" style="1" customWidth="1"/>
+    <col min="13" max="1025" width="9.23046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>409</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:E31" si="0">D2*1000</f>
+        <v>1.22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:G31" si="1">F2*1000</f>
+        <v>1.8699999999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I31" si="2">1000*(F2-D2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>308</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>5.01</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>329</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
+        <v>3.7399999999999998</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>383</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.07</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.04</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>228</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E7" s="6">
+        <f>D7*1000</f>
+        <v>1.22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>2.29</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.07</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
+        <v>156</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.91E-3</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>1.91</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0600000000000003</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>270</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.85</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.96</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>148</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9400000000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1.5226666666666699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>188</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.06E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4399999999999995</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="10">
+        <f>_xlfn.STDEV.S(E2:E31)</f>
+        <v>0.16177215423260422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>398</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.5599999999999998E-3</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5599999999999996</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>2.92</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>236</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="10">
+        <f>L11/SQRT(L12)</f>
+        <v>2.953541934980072E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>321</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.8900000000000002E-3</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8900000000000006</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>4.28</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>121</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>317</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>1.86</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>1.03</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="11">
+        <f>(L14-L13)/L11</f>
+        <v>-247.0787680998464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>184</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.86</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="10">
+        <f>_xlfn.T.DIST(L17,L16,1)</f>
+        <v>4.7382417621052505E-50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="5">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.89E-3</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>1.89</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.04</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="11">
+        <f>_xlfn.T.INV(L15,L16)</f>
+        <v>-1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="2">
+        <v>254</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.02</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>185</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.09E-3</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="1"/>
+        <v>1.46</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36999999999999988</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>395</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4.4799999999999996E-3</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>357</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="5">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.06</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="5">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.81E-3</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
+        <v>1.81</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>230</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8699999999999999</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0399999999999998</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="2">
+        <v>256</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="5">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.04</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>253</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.89E-3</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="1"/>
+        <v>1.89</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>275</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="10">
+        <f>G36</f>
+        <v>2.5880000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>294</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="10">
+        <f>G37</f>
+        <v>1.1516626661274234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>155</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>2.08</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7300000000000002</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="I32"/>
+      <c r="K32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="10">
+        <f>L29/SQRT(L30)</f>
+        <v>0.21026387362484353</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="I33"/>
+      <c r="K33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" s="2"/>
+      <c r="C34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="I34"/>
+      <c r="K34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="I35"/>
+      <c r="K35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="11">
+        <f>(L32-L31)/L29</f>
+        <v>-34.549818533383544</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="14">
+        <f>AVERAGE(E2:E31)</f>
+        <v>0.88433333333333342</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="15">
+        <f>AVERAGE(G2:G31)</f>
+        <v>2.5880000000000005</v>
+      </c>
+      <c r="I36" s="2">
+        <f>AVERAGE(I2:I31)</f>
+        <v>1.7036666666666664</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="10">
+        <f>_xlfn.T.DIST(L35,L34,1)</f>
+        <v>2.0395037311147106E-25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="14">
+        <f>_xlfn.STDEV.S(E2:E31)</f>
+        <v>0.16177215423260422</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="15">
+        <f>_xlfn.STDEV.S(G2:G31)</f>
+        <v>1.1516626661274234</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" s="11">
+        <f>_xlfn.T.INV(L33,L34)</f>
+        <v>-1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="14">
+        <v>30</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15">
+        <v>30</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C39"/>
+      <c r="E39"/>
+      <c r="G39"/>
+      <c r="K39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="1">
+        <f>MIN(E2:E31)</f>
+        <v>0.61</v>
+      </c>
+      <c r="G40" s="1">
+        <f>MIN(G2:G31)</f>
+        <v>1.46</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 1)</f>
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="G41" s="1">
+        <f>_xlfn.QUARTILE.INC(G2:G31, 1)</f>
+        <v>1.8924999999999998</v>
+      </c>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="G42" s="1">
+        <f>_xlfn.QUARTILE.INC(G2:G31, 2)</f>
+        <v>1.9</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 3)</f>
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="G43" s="1">
+        <f>_xlfn.QUARTILE.INC(G2:G31, 3)</f>
+        <v>2.9925000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="1">
+        <f>MAX(E2:E31)</f>
+        <v>1.3</v>
+      </c>
+      <c r="G44" s="1">
+        <f>MAX(G2:G31)</f>
+        <v>5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C45"/>
+      <c r="E45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C46"/>
+      <c r="E46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="1">
+        <f>E41-E40</f>
+        <v>0.21250000000000002</v>
+      </c>
+      <c r="G47" s="1">
+        <f>G41-G40</f>
+        <v>0.43249999999999988</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="1">
+        <f>E42-E41</f>
+        <v>2.7499999999999969E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <f>G42-G41</f>
+        <v>7.5000000000000622E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="1">
+        <f>E43-E42</f>
+        <v>4.7499999999999987E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <f>G43-G42</f>
+        <v>1.0925000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1">
+        <f>E44-E43</f>
+        <v>0.40250000000000008</v>
+      </c>
+      <c r="G50" s="1">
+        <f>G44-G43</f>
+        <v>2.9074999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EEE59C-7AEA-4A4E-B2DB-2A83C9882BEF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\PSHS 2019\5\R2_B09_Chord_Identification\documentation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C143FEFB-70CF-4C97-B088-C1466558AE78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD369739-743C-41B8-917E-D548269B1ED0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="989" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="989" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="NNtime" sheetId="4" r:id="rId4"/>
     <sheet name="Totaltime" sheetId="5" r:id="rId5"/>
     <sheet name="6_NN2_4000" sheetId="7" r:id="rId6"/>
-    <sheet name="A" sheetId="6" r:id="rId7"/>
+    <sheet name="6_NN2_30K" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="228">
   <si>
     <t>R2-B09</t>
   </si>
@@ -577,6 +577,144 @@
   </si>
   <si>
     <t>HA: m &lt; 40</t>
+  </si>
+  <si>
+    <t>Eaug</t>
+  </si>
+  <si>
+    <t>CM7sus2</t>
+  </si>
+  <si>
+    <t>A#7sus4</t>
+  </si>
+  <si>
+    <t>F#o7</t>
+  </si>
+  <si>
+    <t>E9sus2</t>
+  </si>
+  <si>
+    <t>Co7</t>
+  </si>
+  <si>
+    <t>Bsus2</t>
+  </si>
+  <si>
+    <t>F#M11</t>
+  </si>
+  <si>
+    <t>D#7</t>
+  </si>
+  <si>
+    <t>A11sus2</t>
+  </si>
+  <si>
+    <t>Dmin</t>
+  </si>
+  <si>
+    <t>A#mM7(9)</t>
+  </si>
+  <si>
+    <t>A#m11</t>
+  </si>
+  <si>
+    <t>Baug</t>
+  </si>
+  <si>
+    <t>Cm6</t>
+  </si>
+  <si>
+    <t>G#M9sus4</t>
+  </si>
+  <si>
+    <t>CM6(9)</t>
+  </si>
+  <si>
+    <t>C#M6(9)</t>
+  </si>
+  <si>
+    <t>F#dim9</t>
+  </si>
+  <si>
+    <t>Dm6(9)</t>
+  </si>
+  <si>
+    <t>A#aug7</t>
+  </si>
+  <si>
+    <t>C#11</t>
+  </si>
+  <si>
+    <t>A9sus4</t>
+  </si>
+  <si>
+    <t>Ddim7</t>
+  </si>
+  <si>
+    <t>Adim9</t>
+  </si>
+  <si>
+    <t>AM7sus2</t>
+  </si>
+  <si>
+    <t>C#7sus2</t>
+  </si>
+  <si>
+    <t>G#M6(9)</t>
+  </si>
+  <si>
+    <t>D#M11sus2</t>
+  </si>
+  <si>
+    <t>C#M9sus4</t>
+  </si>
+  <si>
+    <t>C#m7</t>
+  </si>
+  <si>
+    <t>A#M7</t>
+  </si>
+  <si>
+    <t>EM11</t>
+  </si>
+  <si>
+    <t>Gm7</t>
+  </si>
+  <si>
+    <t>Fdim7</t>
+  </si>
+  <si>
+    <t>GmM7</t>
+  </si>
+  <si>
+    <t>Bo7</t>
+  </si>
+  <si>
+    <t>C#M9</t>
+  </si>
+  <si>
+    <t>D#9sus2</t>
+  </si>
+  <si>
+    <t>F#M9sus2</t>
+  </si>
+  <si>
+    <t>A#11sus2</t>
+  </si>
+  <si>
+    <t>Amin</t>
+  </si>
+  <si>
+    <t>F#M11sus2</t>
+  </si>
+  <si>
+    <t>E7sus2</t>
+  </si>
+  <si>
+    <t>D#mM7</t>
+  </si>
+  <si>
+    <t>B9sus4</t>
   </si>
 </sst>
 </file>
@@ -637,7 +775,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,6 +792,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -704,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -731,6 +875,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,6 +949,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1773,6 +1921,488 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="HK Grotesk"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="HK Grotesk"/>
+              </a:rPr>
+              <a:t>Neural network response times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('6_NN2_30K'!$E$46,'6_NN2_30K'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('6_NN2_30K'!$E$47,'6_NN2_30K'!$G$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.8799999999999946E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2194999999999974E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF24-4A69-8D0C-5BA4F11C9151}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('6_NN2_30K'!$E$46,'6_NN2_30K'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('6_NN2_30K'!$E$48,'6_NN2_30K'!$G$48)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.78000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30759000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF24-4A69-8D0C-5BA4F11C9151}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A5A5A5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('6_NN2_30K'!$E$46,'6_NN2_30K'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('6_NN2_30K'!$E$49,'6_NN2_30K'!$G$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.13542499999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3720799999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF24-4A69-8D0C-5BA4F11C9151}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('6_NN2_30K'!$E$46,'6_NN2_30K'!$G$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neural net</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neural net + Translator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('6_NN2_30K'!$E$50,'6_NN2_30K'!$G$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>58.101374999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.686295000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FF24-4A69-8D0C-5BA4F11C9151}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="10204729"/>
+        <c:axId val="95714024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10204729"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="HK Grotesk"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95714024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95714024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="HK Grotesk"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10204729"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1835,6 +2465,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56469778-E25B-4E54-8527-71879B61B600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1086840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1072089</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F89E81D-7D1C-4B02-911B-6A5E5FA2BA79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4581,7 +5254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96F28FD-0BBF-4F5B-9859-054629604D05}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -5945,15 +6618,1368 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EEE59C-7AEA-4A4E-B2DB-2A83C9882BEF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A00A45-F8A6-4285-B79B-39CBE7E25130}">
+  <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.23046875" style="1"/>
+    <col min="2" max="2" width="15.84375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.61328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.53515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.23046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.69140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.23046875" style="1"/>
+    <col min="11" max="11" width="17.3046875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.61328125" style="1" customWidth="1"/>
+    <col min="13" max="1025" width="9.23046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>151</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.8966299999999999E-2</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:E31" si="0">D2*1000</f>
+        <v>58.966299999999997</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.909727E-2</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:G31" si="1">F2*1000</f>
+        <v>59.097270000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I31" si="2">1000*(F2-D2)</f>
+        <v>0.13097000000000109</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8.5729999999999997E-4</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.40164E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.40164</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.54434000000000005</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>386</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.6260000000000004E-4</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.3754800000000001E-3</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
+        <v>3.37548</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5128800000000004</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.1295000000000001E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1295000000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.23004E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>1.23004</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10053999999999988</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>234</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6.7120000000000005E-4</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.7032600000000001E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>1.70326</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.03206</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>303</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.6579999999999997E-4</v>
+      </c>
+      <c r="E7" s="6">
+        <f>D7*1000</f>
+        <v>0.76579999999999993</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.82263E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8226300000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <f>1000*(F7-D7)</f>
+        <v>3.0568300000000002</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
+        <v>172</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6.2089999999999997E-4</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7.1308000000000005E-4</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.71308000000000005</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2180000000000081E-2</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8.0610000000000002E-4</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.28518E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>3.28518</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4790799999999997</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>412</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.50651E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>25.065100000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.5174289999999998E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>25.174289999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10918999999999859</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1.5226666666666699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>248</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6.2239999999999995E-4</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.1277000000000005E-4</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.71277000000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0370000000000103E-2</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="10">
+        <f>_xlfn.STDEV.S(E2:E31)</f>
+        <v>12.005527192713716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7.4529999999999996E-4</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.5724099999999998E-3</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5724099999999996</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8271099999999998</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>364</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6.0289999999999996E-4</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6.9910999999999997E-4</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.69911000000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6210000000000004E-2</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.49506E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>24.950600000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.5055129999999998E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>25.055129999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10452999999999851</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="10">
+        <f>L11/SQRT(L12)</f>
+        <v>2.1918993527303248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>403</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.4139999999999998E-4</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.3014E-4</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.73014000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8740000000000027E-2</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>397</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.2859999999999999E-4</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.1958999999999999E-4</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.71958999999999995</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0989999999999988E-2</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>410</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.8249E-3</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8249</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.9266699999999999E-3</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9266699999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10176999999999994</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="11">
+        <f>(L14-L13)/L11</f>
+        <v>-3.1492245230360081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7.6769000000000004E-3</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>7.6769000000000007</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.8400000000000001E-3</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8400000000000003</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.8369000000000004</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="10">
+        <f>_xlfn.T.DIST(L17,L16,1)</f>
+        <v>1.8883282941076626E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>134</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7.0719999999999995E-4</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70719999999999994</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7.9841000000000005E-4</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.79841000000000006</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>9.1210000000000097E-2</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="11">
+        <f>_xlfn.T.INV(L15,L16)</f>
+        <v>-1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="2">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6.4260000000000001E-4</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64260000000000006</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7.2827999999999999E-4</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.72828000000000004</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5679999999999978E-2</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>272</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6.7549999999999999E-4</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.3967999999999998E-4</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.83967999999999998</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16417999999999999</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6.3270000000000004E-4</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7.2610999999999997E-4</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.72610999999999992</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3409999999999938E-2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>243</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6.3820000000000001E-4</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.63819999999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7.3200999999999995E-4</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.73200999999999994</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3809999999999949E-2</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>111</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6.6929999999999995E-4</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7.7481999999999996E-4</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77481999999999995</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10552</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>380</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8.6569999999999995E-4</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.86569999999999991</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9.5945999999999998E-4</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95945999999999998</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3760000000000024E-2</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="2">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7.4910000000000005E-4</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7491000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8.3998999999999999E-4</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.83999000000000001</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0889999999999943E-2</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>358</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="5">
+        <v>6.3920000000000003E-4</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.63919999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7.3107000000000001E-4</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.73107</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>9.1869999999999979E-2</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7.8910000000000004E-4</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.1288800000000001E-3</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1288800000000001</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33978000000000003</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="10">
+        <f>G36</f>
+        <v>4.9371113333333341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>354</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.0053E-3</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0053000000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.1183300000000001E-3</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="1"/>
+        <v>1.11833</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11303000000000007</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="10">
+        <f>G37</f>
+        <v>11.899028509812434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>346</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6.6719999999999995E-4</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6671999999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7.6241999999999998E-4</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.76241999999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5220000000000027E-2</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="5">
+        <v>7.1369999999999995E-4</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7137</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.91519E-3</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9151899999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2014899999999999</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="I32"/>
+      <c r="K32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="10">
+        <f>L29/SQRT(L30)</f>
+        <v>2.1724554424071174</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="I33"/>
+      <c r="K33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" s="2"/>
+      <c r="C34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="I34"/>
+      <c r="K34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="I35"/>
+      <c r="K35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="11">
+        <f>(L32-L31)/L29</f>
+        <v>-3.1790447872613057</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="14">
+        <f>AVERAGE(E2:E31)</f>
+        <v>4.5610866666666663</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="15">
+        <f>AVERAGE(G2:G31)</f>
+        <v>4.9371113333333341</v>
+      </c>
+      <c r="I36" s="2">
+        <f>AVERAGE(I2:I31)</f>
+        <v>0.37602466666666656</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="10">
+        <f>_xlfn.T.DIST(L35,L34,1)</f>
+        <v>1.7503513843093613E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="14">
+        <f>_xlfn.STDEV.S(E2:E31)</f>
+        <v>12.005527192713716</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="15">
+        <f>_xlfn.STDEV.S(G2:G31)</f>
+        <v>11.899028509812434</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" s="11">
+        <f>_xlfn.T.INV(L33,L34)</f>
+        <v>-1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="14">
+        <v>30</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15">
+        <v>30</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C39"/>
+      <c r="E39"/>
+      <c r="G39"/>
+      <c r="K39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="1">
+        <f>MIN(E2:E31)</f>
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="G40" s="1">
+        <f>MIN(G2:G31)</f>
+        <v>0.69911000000000001</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 1)</f>
+        <v>0.64169999999999994</v>
+      </c>
+      <c r="G41" s="1">
+        <f>_xlfn.QUARTILE.INC(G2:G31, 1)</f>
+        <v>0.73130499999999998</v>
+      </c>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 2)</f>
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="G42" s="1">
+        <f>_xlfn.QUARTILE.INC(G2:G31, 2)</f>
+        <v>1.0388950000000001</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="1">
+        <f>_xlfn.QUARTILE.INC(E2:E31, 3)</f>
+        <v>0.86492499999999994</v>
+      </c>
+      <c r="G43" s="1">
+        <f>_xlfn.QUARTILE.INC(G2:G31, 3)</f>
+        <v>2.4109749999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="1">
+        <f>MAX(E2:E31)</f>
+        <v>58.966299999999997</v>
+      </c>
+      <c r="G44" s="1">
+        <f>MAX(G2:G31)</f>
+        <v>59.097270000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C45"/>
+      <c r="E45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C46"/>
+      <c r="E46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="1">
+        <f>E41-E40</f>
+        <v>3.8799999999999946E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <f>G41-G40</f>
+        <v>3.2194999999999974E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="1">
+        <f>E42-E41</f>
+        <v>8.78000000000001E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <f>G42-G41</f>
+        <v>0.30759000000000014</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="1">
+        <f>E43-E42</f>
+        <v>0.13542499999999991</v>
+      </c>
+      <c r="G49" s="1">
+        <f>G43-G42</f>
+        <v>1.3720799999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1">
+        <f>E44-E43</f>
+        <v>58.101374999999997</v>
+      </c>
+      <c r="G50" s="1">
+        <f>G44-G43</f>
+        <v>56.686295000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\PSHS 2019\5\R2_B09_Chord_Identification\documentation\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joachim\Documents\PSHS 2019\5\R2_B09_Chord_Identification\documentation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD369739-743C-41B8-917E-D548269B1ED0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FAB58A-DB93-412A-BD58-DFF9E1F35E4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="989" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,14 @@
     <sheet name="6_NN2_4000" sheetId="7" r:id="rId6"/>
     <sheet name="6_NN2_30K" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -2833,20 +2839,20 @@
       <selection activeCell="D3" activeCellId="1" sqref="K25:L40 D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.765625" style="1"/>
-    <col min="2" max="2" width="33.69140625" style="1"/>
-    <col min="3" max="3" width="17.53515625" style="1"/>
-    <col min="4" max="1025" width="9.765625" style="1"/>
+    <col min="1" max="1" width="9.77734375" style="1"/>
+    <col min="2" max="2" width="33.6640625" style="1"/>
+    <col min="3" max="3" width="17.5546875" style="1"/>
+    <col min="4" max="1025" width="9.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2855,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34.299999999999997" x14ac:dyDescent="0.95">
+    <row r="3" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.7">
       <c r="A3"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -2864,17 +2870,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2898,19 +2904,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2932,18 +2938,18 @@
       <selection activeCellId="1" sqref="K25:L40 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.765625" style="1"/>
-    <col min="2" max="2" width="16.4609375" style="1"/>
-    <col min="3" max="3" width="17.23046875" style="1"/>
-    <col min="4" max="4" width="10.765625" style="1"/>
-    <col min="5" max="5" width="16.07421875" style="1"/>
-    <col min="6" max="6" width="17.84375" style="1"/>
-    <col min="7" max="1025" width="10.765625" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1"/>
+    <col min="3" max="3" width="17.21875" style="1"/>
+    <col min="4" max="4" width="10.77734375" style="1"/>
+    <col min="5" max="5" width="16.109375" style="1"/>
+    <col min="6" max="6" width="17.88671875" style="1"/>
+    <col min="7" max="1025" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3009,7 +3015,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3028,7 +3034,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3047,7 +3053,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3066,7 +3072,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3085,7 +3091,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>1.5299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>1.2899999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3268,72 +3274,72 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3356,23 +3362,23 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.765625" style="1"/>
-    <col min="2" max="2" width="16.4609375" style="1"/>
-    <col min="3" max="3" width="27.23046875" style="1"/>
-    <col min="4" max="5" width="17.4609375" style="1"/>
-    <col min="6" max="6" width="10.765625" style="1"/>
-    <col min="7" max="7" width="16.23046875" style="1"/>
-    <col min="8" max="8" width="17.84375" style="1"/>
-    <col min="9" max="9" width="16.4609375" style="1"/>
-    <col min="10" max="10" width="10.765625" style="1"/>
-    <col min="11" max="11" width="21.23046875" style="1"/>
-    <col min="12" max="12" width="25.3046875" style="1"/>
-    <col min="13" max="1025" width="10.765625" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1"/>
+    <col min="3" max="3" width="27.21875" style="1"/>
+    <col min="4" max="5" width="17.44140625" style="1"/>
+    <col min="6" max="6" width="10.77734375" style="1"/>
+    <col min="7" max="7" width="16.21875" style="1"/>
+    <col min="8" max="8" width="17.88671875" style="1"/>
+    <col min="9" max="9" width="16.44140625" style="1"/>
+    <col min="10" max="10" width="10.77734375" style="1"/>
+    <col min="11" max="11" width="21.21875" style="1"/>
+    <col min="12" max="12" width="25.33203125" style="1"/>
+    <col min="13" max="1025" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -3403,7 +3409,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>334</v>
       </c>
@@ -3437,7 +3443,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>388</v>
       </c>
@@ -3473,7 +3479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>77</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>150</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>82</v>
       </c>
@@ -3579,7 +3585,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>302</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>305</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>1.5226666666666699</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>0.31587790453704268</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>25</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>424</v>
       </c>
@@ -3844,7 +3850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>247</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>5.7671151244133911E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>438</v>
       </c>
@@ -3921,7 +3927,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>217</v>
       </c>
@@ -3959,7 +3965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>368</v>
       </c>
@@ -3998,7 +4004,7 @@
         <v>-31.475227313944458</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>145</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>2.843196868216149E-24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>405</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>-1.6991270265334986</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>58</v>
       </c>
@@ -4110,7 +4116,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>68</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>182</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>204</v>
       </c>
@@ -4220,7 +4226,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>227</v>
       </c>
@@ -4254,7 +4260,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>272</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>357</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>420</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>409</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>2.9546666666666668</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>423</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>0.57541429352719786</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>427</v>
       </c>
@@ -4482,7 +4488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>211</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="E32"/>
@@ -4535,7 +4541,7 @@
         <v>0.10505579615858172</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="E33"/>
@@ -4549,7 +4555,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34"/>
       <c r="E34"/>
@@ -4563,7 +4569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
@@ -4579,7 +4585,7 @@
         <v>-17.196208566851876</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>112</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>4.7098882080482392E-17</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
@@ -4625,7 +4631,7 @@
         <v>-1.6991270265334986</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>114</v>
       </c>
@@ -4639,7 +4645,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39"/>
       <c r="E39"/>
       <c r="G39"/>
@@ -4650,7 +4656,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>115</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>116</v>
       </c>
@@ -4683,7 +4689,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
@@ -4712,7 +4718,7 @@
         <v>3.3150000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
         <v>120</v>
       </c>
@@ -4725,12 +4731,12 @@
         <v>4.1599999999999993</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45"/>
       <c r="E45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46"/>
       <c r="E46" s="2" t="s">
         <v>121</v>
@@ -4739,7 +4745,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>123</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>1.1925000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
@@ -4765,7 +4771,7 @@
         <v>0.2174999999999998</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>125</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>0.39500000000000046</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
@@ -4806,163 +4812,163 @@
       <selection activeCell="C1" activeCellId="1" sqref="K25:L40 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.3046875"/>
-    <col min="2" max="1025" width="11.765625"/>
+    <col min="1" max="1" width="18.33203125"/>
+    <col min="2" max="1025" width="11.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0.88</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1.37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2.16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1.47</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1.48</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1.99</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2.19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1.52</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1.42</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>1.57</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1.29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1.31</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>1.27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>1.28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>1.6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1.33</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>1.32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>1.62</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>1.59</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1.35</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>1.4</v>
       </c>
@@ -4985,14 +4991,14 @@
       <selection activeCell="C6" activeCellId="1" sqref="K25:L40 C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.765625"/>
-    <col min="2" max="2" width="16.69140625"/>
-    <col min="3" max="1025" width="11.765625"/>
+    <col min="1" max="1" width="15.77734375"/>
+    <col min="2" max="2" width="16.6640625"/>
+    <col min="3" max="1025" width="11.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -5008,7 +5014,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -5016,7 +5022,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -5024,7 +5030,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -5048,7 +5054,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -5056,7 +5062,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -5072,7 +5078,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -5088,7 +5094,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -5096,7 +5102,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -5104,7 +5110,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -5112,7 +5118,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
@@ -5144,7 +5150,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
@@ -5152,7 +5158,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -5160,7 +5166,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
@@ -5168,7 +5174,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -5184,7 +5190,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -5200,7 +5206,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -5216,7 +5222,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -5224,7 +5230,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -5232,7 +5238,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -5258,24 +5264,23 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="1"/>
-    <col min="2" max="2" width="15.84375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.53515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.61328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.23046875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.69140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.23046875" style="1"/>
-    <col min="11" max="11" width="17.3046875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.61328125" style="1" customWidth="1"/>
-    <col min="13" max="1025" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="1025" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -5306,7 +5311,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>409</v>
       </c>
@@ -5340,7 +5345,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>308</v>
       </c>
@@ -5376,7 +5381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>329</v>
       </c>
@@ -5409,7 +5414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>383</v>
       </c>
@@ -5442,7 +5447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10</v>
       </c>
@@ -5473,7 +5478,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>228</v>
       </c>
@@ -5508,7 +5513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>156</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>270</v>
       </c>
@@ -5576,7 +5581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>148</v>
       </c>
@@ -5611,7 +5616,7 @@
         <v>1.5226666666666699</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>188</v>
       </c>
@@ -5647,7 +5652,7 @@
         <v>0.16177215423260422</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>398</v>
       </c>
@@ -5682,7 +5687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>63</v>
       </c>
@@ -5717,7 +5722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>236</v>
       </c>
@@ -5753,7 +5758,7 @@
         <v>2.953541934980072E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>321</v>
       </c>
@@ -5788,7 +5793,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>121</v>
       </c>
@@ -5823,7 +5828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>317</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>-247.0787680998464</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>184</v>
       </c>
@@ -5895,7 +5900,7 @@
         <v>4.7382417621052505E-50</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>87</v>
       </c>
@@ -5931,7 +5936,7 @@
         <v>-1.6991270265334986</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>254</v>
       </c>
@@ -5962,7 +5967,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>185</v>
       </c>
@@ -5997,7 +6002,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>395</v>
       </c>
@@ -6032,7 +6037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>357</v>
       </c>
@@ -6063,7 +6068,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>107</v>
       </c>
@@ -6094,7 +6099,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>230</v>
       </c>
@@ -6129,7 +6134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>256</v>
       </c>
@@ -6164,7 +6169,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>253</v>
       </c>
@@ -6197,7 +6202,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>275</v>
       </c>
@@ -6233,7 +6238,7 @@
         <v>2.5880000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>294</v>
       </c>
@@ -6269,7 +6274,7 @@
         <v>1.1516626661274234</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>155</v>
       </c>
@@ -6304,7 +6309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -6339,7 +6344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="E32"/>
@@ -6354,7 +6359,7 @@
         <v>0.21026387362484353</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="E33"/>
@@ -6368,7 +6373,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34"/>
       <c r="E34"/>
@@ -6382,7 +6387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
@@ -6398,7 +6403,7 @@
         <v>-34.549818533383544</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>112</v>
       </c>
@@ -6423,7 +6428,7 @@
         <v>2.0395037311147106E-25</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
@@ -6444,7 +6449,7 @@
         <v>-1.6991270265334986</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="2" t="s">
         <v>114</v>
       </c>
@@ -6458,7 +6463,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39"/>
       <c r="E39"/>
       <c r="G39"/>
@@ -6469,7 +6474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>115</v>
       </c>
@@ -6488,7 +6493,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>116</v>
       </c>
@@ -6502,7 +6507,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
@@ -6518,7 +6523,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>2.9925000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
         <v>120</v>
       </c>
@@ -6544,12 +6549,12 @@
         <v>5.8999999999999995</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45"/>
       <c r="E45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46"/>
       <c r="E46" s="2" t="s">
         <v>121</v>
@@ -6558,7 +6563,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>123</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>0.43249999999999988</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
@@ -6584,7 +6589,7 @@
         <v>7.5000000000000622E-3</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6602,7 @@
         <v>1.0925000000000002</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
@@ -6621,28 +6626,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A00A45-F8A6-4285-B79B-39CBE7E25130}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="1"/>
-    <col min="2" max="2" width="15.84375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.61328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.53515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.23046875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.69140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.23046875" style="1"/>
-    <col min="11" max="11" width="17.3046875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.61328125" style="1" customWidth="1"/>
-    <col min="13" max="1025" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="1025" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -6673,7 +6677,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>151</v>
       </c>
@@ -6707,7 +6711,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>13</v>
       </c>
@@ -6743,7 +6747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>386</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>64</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>234</v>
       </c>
@@ -6840,7 +6844,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>303</v>
       </c>
@@ -6875,7 +6879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>172</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -6943,7 +6947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>412</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>1.5226666666666699</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>248</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>12.005527192713716</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>120</v>
       </c>
@@ -7049,7 +7053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>364</v>
       </c>
@@ -7084,7 +7088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>76</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>2.1918993527303248</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>403</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>397</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>410</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>-3.1492245230360081</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>35</v>
       </c>
@@ -7262,7 +7266,7 @@
         <v>1.8883282941076626E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>134</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>-1.6991270265334986</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>36</v>
       </c>
@@ -7329,7 +7333,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>272</v>
       </c>
@@ -7364,7 +7368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>73</v>
       </c>
@@ -7399,7 +7403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>243</v>
       </c>
@@ -7430,7 +7434,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>111</v>
       </c>
@@ -7461,7 +7465,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>380</v>
       </c>
@@ -7496,7 +7500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>65</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>358</v>
       </c>
@@ -7564,7 +7568,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>85</v>
       </c>
@@ -7600,7 +7604,7 @@
         <v>4.9371113333333341</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>354</v>
       </c>
@@ -7636,7 +7640,7 @@
         <v>11.899028509812434</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>346</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>52</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="E32"/>
@@ -7721,7 +7725,7 @@
         <v>2.1724554424071174</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="E33"/>
@@ -7735,7 +7739,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34"/>
       <c r="E34"/>
@@ -7749,7 +7753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
@@ -7765,7 +7769,7 @@
         <v>-3.1790447872613057</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>112</v>
       </c>
@@ -7790,7 +7794,7 @@
         <v>1.7503513843093613E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
@@ -7811,7 +7815,7 @@
         <v>-1.6991270265334986</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.45" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="2" t="s">
         <v>114</v>
       </c>
@@ -7825,7 +7829,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39"/>
       <c r="E39"/>
       <c r="G39"/>
@@ -7836,7 +7840,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>115</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>116</v>
       </c>
@@ -7869,7 +7873,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
@@ -7885,7 +7889,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>2.4109749999999996</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
         <v>120</v>
       </c>
@@ -7911,12 +7915,12 @@
         <v>59.097270000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45"/>
       <c r="E45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46"/>
       <c r="E46" s="2" t="s">
         <v>121</v>
@@ -7925,7 +7929,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>123</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>3.2194999999999974E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
@@ -7951,7 +7955,7 @@
         <v>0.30759000000000014</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>125</v>
       </c>
@@ -7964,7 +7968,7 @@
         <v>1.3720799999999995</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>126</v>
       </c>

--- a/documentation/figures/latencies.xlsx
+++ b/documentation/figures/latencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joachim\Documents\PSHS 2019\5\R2_B09_Chord_Identification\documentation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FAB58A-DB93-412A-BD58-DFF9E1F35E4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844E2B12-7AD3-4234-8632-695314DCA4EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6626,8 +6626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A00A45-F8A6-4285-B79B-39CBE7E25130}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="G18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
